--- a/PLANILLA MODELO.xlsx
+++ b/PLANILLA MODELO.xlsx
@@ -1,123 +1,118 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="20490" windowHeight="7815" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$C$1:$V$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$C$1:$V$104</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="61">
   <si>
-    <t xml:space="preserve">sim</t>
+    <t>sim</t>
   </si>
   <si>
-    <t xml:space="preserve">REMITO</t>
+    <t>REMITO</t>
   </si>
   <si>
-    <t xml:space="preserve">Linea a Portar</t>
+    <t>Linea a Portar</t>
   </si>
   <si>
-    <t xml:space="preserve">envios</t>
+    <t>envios</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre</t>
+    <t>Nombre</t>
   </si>
   <si>
-    <t xml:space="preserve">Apellido</t>
+    <t>Apellido</t>
   </si>
   <si>
-    <t xml:space="preserve">DNI</t>
+    <t>DNI</t>
   </si>
   <si>
-    <t xml:space="preserve">Provincia</t>
+    <t>Provincia</t>
   </si>
   <si>
-    <t xml:space="preserve">Ciudad</t>
+    <t>Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">Código Postal</t>
+    <t>Código Postal</t>
   </si>
   <si>
-    <t xml:space="preserve">Dirección</t>
+    <t>Dirección</t>
   </si>
   <si>
-    <t xml:space="preserve">Número</t>
+    <t>Número</t>
   </si>
   <si>
-    <t xml:space="preserve">Torre / Monoblock</t>
+    <t>Torre / Monoblock</t>
   </si>
   <si>
-    <t xml:space="preserve">Piso</t>
+    <t>Piso</t>
   </si>
   <si>
-    <t xml:space="preserve">Departamento</t>
+    <t>Departamento</t>
   </si>
   <si>
-    <t xml:space="preserve">Manzana</t>
+    <t>Manzana</t>
   </si>
   <si>
-    <t xml:space="preserve">Casa / Lote</t>
+    <t>Casa / Lote</t>
   </si>
   <si>
-    <t xml:space="preserve">Barrio</t>
+    <t>Barrio</t>
   </si>
   <si>
-    <t xml:space="preserve">Entre Calles</t>
+    <t>Entre Calles</t>
   </si>
   <si>
-    <t xml:space="preserve">Referencias</t>
+    <t>Referencias</t>
   </si>
   <si>
-    <t xml:space="preserve">Fecha despacho SIM</t>
+    <t>Fecha despacho SIM</t>
   </si>
   <si>
-    <t xml:space="preserve">Usuario logística</t>
+    <t>Usuario logística</t>
   </si>
   <si>
-    <t xml:space="preserve">1169369297</t>
+    <t>1169369297</t>
   </si>
   <si>
-    <t xml:space="preserve">JERRY ROMER</t>
+    <t>JERRY ROMER</t>
   </si>
   <si>
-    <t xml:space="preserve">ARUQUIPA RAMOS</t>
+    <t>ARUQUIPA RAMOS</t>
   </si>
   <si>
-    <t xml:space="preserve">95082638</t>
+    <t>95082638</t>
   </si>
   <si>
-    <t xml:space="preserve">BUENOS AIRES</t>
+    <t>BUENOS AIRES</t>
   </si>
   <si>
-    <t xml:space="preserve">CABA</t>
+    <t>CABA</t>
   </si>
   <si>
-    <t xml:space="preserve">1506</t>
+    <t>1506</t>
   </si>
   <si>
     <t xml:space="preserve">ARGERICH </t>
   </si>
   <si>
-    <t xml:space="preserve">17</t>
+    <t>17</t>
   </si>
   <si>
     <t xml:space="preserve">YERBAL Y AV. RIVADAVIA </t>
@@ -126,89 +121,277 @@
     <t xml:space="preserve">LUGAR DE TRABAJO DEL TITULAR- BARBERIA Y PELUQUERIA "PELOS Y PELITOS"- DEJAR EN MANO DEL TITULAR </t>
   </si>
   <si>
-    <t xml:space="preserve">1127160925</t>
+    <t>1127160925</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">Matias Sebastian</t>
+    <t>Matias Sebastian</t>
   </si>
   <si>
-    <t xml:space="preserve">Acciaio</t>
+    <t>Acciaio</t>
   </si>
   <si>
-    <t xml:space="preserve">36522124</t>
+    <t>36522124</t>
   </si>
   <si>
-    <t xml:space="preserve">Buenos aires</t>
+    <t>Buenos aires</t>
   </si>
   <si>
-    <t xml:space="preserve">caba</t>
+    <t>caba</t>
   </si>
   <si>
-    <t xml:space="preserve">1807</t>
+    <t>1807</t>
   </si>
   <si>
-    <t xml:space="preserve">PANAMA</t>
+    <t>PANAMA</t>
   </si>
   <si>
-    <t xml:space="preserve">1729</t>
+    <t>1729</t>
   </si>
   <si>
-    <t xml:space="preserve">Talcahuano y parana</t>
+    <t>Talcahuano y parana</t>
   </si>
   <si>
-    <t xml:space="preserve">despues de las 19hs</t>
+    <t>despues de las 19hs</t>
+  </si>
+  <si>
+    <t>123123</t>
+  </si>
+  <si>
+    <t>1512523</t>
+  </si>
+  <si>
+    <t>623451</t>
+  </si>
+  <si>
+    <t>7613651</t>
+  </si>
+  <si>
+    <t>734723361</t>
+  </si>
+  <si>
+    <t>16236123</t>
+  </si>
+  <si>
+    <t>1236347</t>
+  </si>
+  <si>
+    <t>13265123512</t>
+  </si>
+  <si>
+    <t>6136512356</t>
+  </si>
+  <si>
+    <t>15231235</t>
+  </si>
+  <si>
+    <t>152125</t>
+  </si>
+  <si>
+    <t>112545314</t>
+  </si>
+  <si>
+    <t>51235125</t>
+  </si>
+  <si>
+    <t>512351235</t>
+  </si>
+  <si>
+    <t>1231451515</t>
+  </si>
+  <si>
+    <t>5123512</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="1"/>
-      <charset val="1"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="1"/>
-      <charset val="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,235 +410,898 @@
         <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="10">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="50">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 2" xfId="20"/>
+    <cellStyle name="Título 3" xfId="1" builtinId="18"/>
+    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda" xfId="5" builtinId="4"/>
+    <cellStyle name="Coma" xfId="6" builtinId="3"/>
+    <cellStyle name="Porcentaje" xfId="7" builtinId="5"/>
+    <cellStyle name="Hipervínculo" xfId="8" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21"/>
+    <cellStyle name="Nota" xfId="11" builtinId="10"/>
+    <cellStyle name="Título 2" xfId="12" builtinId="17"/>
+    <cellStyle name="Texto de advertencia" xfId="13" builtinId="11"/>
+    <cellStyle name="Título" xfId="14" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="15" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="16" builtinId="16"/>
+    <cellStyle name="Título 4" xfId="17" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="18" builtinId="20"/>
+    <cellStyle name="Cálculo" xfId="19" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="21" builtinId="24"/>
+    <cellStyle name="Total" xfId="22" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="23" builtinId="26"/>
+    <cellStyle name="40% - Énfasis5" xfId="24" builtinId="47"/>
+    <cellStyle name="Incorrecto" xfId="25" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="26" builtinId="28"/>
+    <cellStyle name="20% - Énfasis5" xfId="27" builtinId="46"/>
+    <cellStyle name="Énfasis1" xfId="28" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="29" builtinId="30"/>
+    <cellStyle name="60% - Énfasis1" xfId="30" builtinId="32"/>
+    <cellStyle name="20% - Énfasis6" xfId="31" builtinId="50"/>
+    <cellStyle name="Énfasis2" xfId="32" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="33" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="34" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="35" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="36" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="37" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="38" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="39" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="42" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="43" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="44" builtinId="45"/>
+    <cellStyle name="60% - Énfasis5" xfId="45" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="Normal 2" xfId="48"/>
+    <cellStyle name="60% - Énfasis6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF01A9DB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF9C0006"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFFFC7CE"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF01A9DB"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFAC090"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="009C0006"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00FFC7CE"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0001A9DB"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FAC090"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V283"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U3" activeCellId="0" sqref="U3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4380952380952" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="39.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="47.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="17.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="66.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="216.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="24.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="20.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="23" style="1" width="11.42"/>
+    <col min="1" max="1" width="27.5809523809524" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="17.4" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1238095238095" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1238095238095" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="39.7047619047619" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.4" style="1" customWidth="1"/>
+    <col min="11" max="11" width="47.0190476190476" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.3047619047619" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.0095238095238" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.71428571428571" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5904761904762" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.2857142857143" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5714285714286" style="1" customWidth="1"/>
+    <col min="18" max="18" width="25" style="1" customWidth="1"/>
+    <col min="19" max="19" width="66.2857142857143" style="1" customWidth="1"/>
+    <col min="20" max="20" width="216.428571428571" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.5714285714286" style="1" customWidth="1"/>
+    <col min="22" max="22" width="20.2952380952381" style="1" customWidth="1"/>
+    <col min="23" max="1024" width="11.4190476190476" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -523,13 +1369,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:22">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -571,7 +1417,7 @@
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:22">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="7" t="s">
@@ -619,391 +1465,775 @@
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:22">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
+      <c r="S4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:22">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
+      <c r="S5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:22">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
+      <c r="S6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:22">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
+      <c r="S7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:22">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
+      <c r="S8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:22">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
+      <c r="S9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:22">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
+      <c r="S10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:22">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
+      <c r="S11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:22">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
+      <c r="S12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:22">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
+      <c r="S13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:22">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
+      <c r="S14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:22">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
+      <c r="S15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:22">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
+      <c r="S16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:22">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
+      <c r="S17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:22">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
+      <c r="S18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:22">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
+      <c r="S19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:22">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="7"/>
@@ -1027,7 +2257,7 @@
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:22">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="7"/>
@@ -1051,7 +2281,7 @@
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:22">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="7"/>
@@ -1075,7 +2305,7 @@
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:22">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="7"/>
@@ -1099,7 +2329,7 @@
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:22">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="7"/>
@@ -1123,7 +2353,7 @@
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:22">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="7"/>
@@ -1147,7 +2377,7 @@
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
     </row>
-    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:22">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="7"/>
@@ -1171,7 +2401,7 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:22">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="7"/>
@@ -1195,7 +2425,7 @@
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
     </row>
-    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:22">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="7"/>
@@ -1219,7 +2449,7 @@
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:22">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="7"/>
@@ -1243,7 +2473,7 @@
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:22">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="7"/>
@@ -1267,7 +2497,7 @@
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:22">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="7"/>
@@ -1291,7 +2521,7 @@
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:22">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="7"/>
@@ -1315,7 +2545,7 @@
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:22">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="7"/>
@@ -1339,7 +2569,7 @@
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:22">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="7"/>
@@ -1363,7 +2593,7 @@
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:22">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="7"/>
@@ -1387,7 +2617,7 @@
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:22">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="7"/>
@@ -1411,7 +2641,7 @@
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
     </row>
-    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:22">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="7"/>
@@ -1435,7 +2665,7 @@
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
     </row>
-    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:22">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="7"/>
@@ -1459,7 +2689,7 @@
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:22">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="7"/>
@@ -1483,7 +2713,7 @@
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:22">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="7"/>
@@ -1507,7 +2737,7 @@
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:22">
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="7"/>
@@ -1531,7 +2761,7 @@
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:22">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
       <c r="C42" s="7"/>
@@ -1555,7 +2785,7 @@
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:22">
       <c r="A43" s="8"/>
       <c r="B43" s="9"/>
       <c r="C43" s="7"/>
@@ -1579,7 +2809,7 @@
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:22">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
       <c r="C44" s="7"/>
@@ -1603,7 +2833,7 @@
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:22">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="7"/>
@@ -1627,7 +2857,7 @@
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:22">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
       <c r="C46" s="7"/>
@@ -1651,7 +2881,7 @@
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:22">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="7"/>
@@ -1675,7 +2905,7 @@
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
     </row>
-    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:22">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
       <c r="C48" s="7"/>
@@ -1699,7 +2929,7 @@
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:22">
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
       <c r="C49" s="7"/>
@@ -1723,7 +2953,7 @@
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:22">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="7"/>
@@ -1747,7 +2977,7 @@
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
     </row>
-    <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:22">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="7"/>
@@ -1771,7 +3001,7 @@
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
     </row>
-    <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:22">
       <c r="A52" s="8"/>
       <c r="B52" s="9"/>
       <c r="C52" s="7"/>
@@ -1795,7 +3025,7 @@
       <c r="U52" s="7"/>
       <c r="V52" s="7"/>
     </row>
-    <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:22">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="C53" s="7"/>
@@ -1819,7 +3049,7 @@
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
     </row>
-    <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:22">
       <c r="A54" s="8"/>
       <c r="B54" s="9"/>
       <c r="C54" s="7"/>
@@ -1843,7 +3073,7 @@
       <c r="U54" s="7"/>
       <c r="V54" s="7"/>
     </row>
-    <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:22">
       <c r="A55" s="8"/>
       <c r="B55" s="9"/>
       <c r="C55" s="7"/>
@@ -1867,7 +3097,7 @@
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
     </row>
-    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:22">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
       <c r="C56" s="7"/>
@@ -1891,7 +3121,7 @@
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
     </row>
-    <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:22">
       <c r="A57" s="8"/>
       <c r="B57" s="9"/>
       <c r="C57" s="7"/>
@@ -1915,7 +3145,7 @@
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
     </row>
-    <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:22">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
       <c r="C58" s="7"/>
@@ -1939,7 +3169,7 @@
       <c r="U58" s="7"/>
       <c r="V58" s="7"/>
     </row>
-    <row r="59" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:22">
       <c r="A59" s="8"/>
       <c r="B59" s="9"/>
       <c r="C59" s="7"/>
@@ -1963,7 +3193,7 @@
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
     </row>
-    <row r="60" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:22">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
       <c r="C60" s="7"/>
@@ -1987,7 +3217,7 @@
       <c r="U60" s="7"/>
       <c r="V60" s="7"/>
     </row>
-    <row r="61" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:22">
       <c r="A61" s="8"/>
       <c r="B61" s="9"/>
       <c r="C61" s="7"/>
@@ -2011,7 +3241,7 @@
       <c r="U61" s="7"/>
       <c r="V61" s="7"/>
     </row>
-    <row r="62" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:22">
       <c r="A62" s="8"/>
       <c r="B62" s="9"/>
       <c r="C62" s="7"/>
@@ -2035,7 +3265,7 @@
       <c r="U62" s="7"/>
       <c r="V62" s="7"/>
     </row>
-    <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:22">
       <c r="A63" s="8"/>
       <c r="B63" s="9"/>
       <c r="C63" s="7"/>
@@ -2059,7 +3289,7 @@
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
     </row>
-    <row r="64" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:22">
       <c r="A64" s="8"/>
       <c r="B64" s="9"/>
       <c r="C64" s="7"/>
@@ -2083,7 +3313,7 @@
       <c r="U64" s="7"/>
       <c r="V64" s="7"/>
     </row>
-    <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:21">
       <c r="A65" s="8"/>
       <c r="B65" s="9"/>
       <c r="C65" s="7"/>
@@ -2106,7 +3336,7 @@
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
     </row>
-    <row r="66" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:21">
       <c r="A66" s="8"/>
       <c r="B66" s="9"/>
       <c r="C66" s="7"/>
@@ -2129,7 +3359,7 @@
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
     </row>
-    <row r="67" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:21">
       <c r="A67" s="8"/>
       <c r="B67" s="9"/>
       <c r="C67" s="7"/>
@@ -2152,7 +3382,7 @@
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
     </row>
-    <row r="68" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:21">
       <c r="A68" s="8"/>
       <c r="B68" s="9"/>
       <c r="C68" s="7"/>
@@ -2175,7 +3405,7 @@
       <c r="T68" s="7"/>
       <c r="U68" s="7"/>
     </row>
-    <row r="69" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:21">
       <c r="A69" s="8"/>
       <c r="B69" s="9"/>
       <c r="C69" s="7"/>
@@ -2198,7 +3428,7 @@
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
     </row>
-    <row r="70" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:21">
       <c r="A70" s="8"/>
       <c r="B70" s="9"/>
       <c r="C70" s="7"/>
@@ -2221,7 +3451,7 @@
       <c r="T70" s="7"/>
       <c r="U70" s="7"/>
     </row>
-    <row r="71" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:21">
       <c r="A71" s="8"/>
       <c r="B71" s="9"/>
       <c r="C71" s="7"/>
@@ -2244,7 +3474,7 @@
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
     </row>
-    <row r="72" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:21">
       <c r="A72" s="8"/>
       <c r="B72" s="9"/>
       <c r="C72" s="7"/>
@@ -2267,7 +3497,7 @@
       <c r="T72" s="7"/>
       <c r="U72" s="7"/>
     </row>
-    <row r="73" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:21">
       <c r="A73" s="8"/>
       <c r="B73" s="9"/>
       <c r="C73" s="7"/>
@@ -2290,7 +3520,7 @@
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
     </row>
-    <row r="74" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:21">
       <c r="A74" s="8"/>
       <c r="B74" s="9"/>
       <c r="C74" s="7"/>
@@ -2313,7 +3543,7 @@
       <c r="T74" s="7"/>
       <c r="U74" s="7"/>
     </row>
-    <row r="75" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:21">
       <c r="A75" s="8"/>
       <c r="B75" s="9"/>
       <c r="C75" s="7"/>
@@ -2336,7 +3566,7 @@
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
     </row>
-    <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:21">
       <c r="A76" s="8"/>
       <c r="B76" s="9"/>
       <c r="C76" s="7"/>
@@ -2359,7 +3589,7 @@
       <c r="T76" s="7"/>
       <c r="U76" s="7"/>
     </row>
-    <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:21">
       <c r="A77" s="8"/>
       <c r="B77" s="9"/>
       <c r="C77" s="7"/>
@@ -2382,7 +3612,7 @@
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
     </row>
-    <row r="78" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:21">
       <c r="A78" s="8"/>
       <c r="B78" s="9"/>
       <c r="C78" s="7"/>
@@ -2405,7 +3635,7 @@
       <c r="T78" s="7"/>
       <c r="U78" s="7"/>
     </row>
-    <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:21">
       <c r="A79" s="8"/>
       <c r="B79" s="9"/>
       <c r="C79" s="7"/>
@@ -2428,7 +3658,7 @@
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
     </row>
-    <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:21">
       <c r="A80" s="8"/>
       <c r="B80" s="9"/>
       <c r="C80" s="7"/>
@@ -2451,7 +3681,7 @@
       <c r="T80" s="7"/>
       <c r="U80" s="7"/>
     </row>
-    <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:22">
       <c r="A81" s="8"/>
       <c r="B81" s="9"/>
       <c r="C81" s="7"/>
@@ -2475,7 +3705,7 @@
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
     </row>
-    <row r="82" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:22">
       <c r="A82" s="8"/>
       <c r="B82" s="9"/>
       <c r="C82" s="7"/>
@@ -2499,7 +3729,7 @@
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
     </row>
-    <row r="83" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:22">
       <c r="A83" s="8"/>
       <c r="B83" s="9"/>
       <c r="C83" s="7"/>
@@ -2523,7 +3753,7 @@
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
     </row>
-    <row r="84" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:22">
       <c r="A84" s="8"/>
       <c r="B84" s="9"/>
       <c r="C84" s="7"/>
@@ -2547,7 +3777,7 @@
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
     </row>
-    <row r="85" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:22">
       <c r="A85" s="8"/>
       <c r="B85" s="9"/>
       <c r="C85" s="7"/>
@@ -2571,7 +3801,7 @@
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
     </row>
-    <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:22">
       <c r="A86" s="8"/>
       <c r="B86" s="9"/>
       <c r="C86" s="7"/>
@@ -2595,7 +3825,7 @@
       <c r="U86" s="7"/>
       <c r="V86" s="7"/>
     </row>
-    <row r="87" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:22">
       <c r="A87" s="8"/>
       <c r="B87" s="9"/>
       <c r="C87" s="7"/>
@@ -2619,7 +3849,7 @@
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
     </row>
-    <row r="88" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:22">
       <c r="A88" s="8"/>
       <c r="B88" s="9"/>
       <c r="C88" s="7"/>
@@ -2643,7 +3873,7 @@
       <c r="U88" s="7"/>
       <c r="V88" s="7"/>
     </row>
-    <row r="89" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:22">
       <c r="A89" s="8"/>
       <c r="B89" s="9"/>
       <c r="C89" s="7"/>
@@ -2667,7 +3897,7 @@
       <c r="U89" s="7"/>
       <c r="V89" s="7"/>
     </row>
-    <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:22">
       <c r="A90" s="8"/>
       <c r="B90" s="9"/>
       <c r="C90" s="7"/>
@@ -2691,7 +3921,7 @@
       <c r="U90" s="7"/>
       <c r="V90" s="7"/>
     </row>
-    <row r="91" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:22">
       <c r="A91" s="8"/>
       <c r="B91" s="9"/>
       <c r="C91" s="7"/>
@@ -2715,7 +3945,7 @@
       <c r="U91" s="7"/>
       <c r="V91" s="7"/>
     </row>
-    <row r="92" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:22">
       <c r="A92" s="8"/>
       <c r="B92" s="9"/>
       <c r="C92" s="7"/>
@@ -2739,7 +3969,7 @@
       <c r="U92" s="7"/>
       <c r="V92" s="7"/>
     </row>
-    <row r="93" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:22">
       <c r="A93" s="8"/>
       <c r="B93" s="9"/>
       <c r="C93" s="7"/>
@@ -2763,7 +3993,7 @@
       <c r="U93" s="7"/>
       <c r="V93" s="7"/>
     </row>
-    <row r="94" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:22">
       <c r="A94" s="8"/>
       <c r="B94" s="9"/>
       <c r="C94" s="7"/>
@@ -2787,7 +4017,7 @@
       <c r="U94" s="7"/>
       <c r="V94" s="7"/>
     </row>
-    <row r="95" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:22">
       <c r="A95" s="8"/>
       <c r="B95" s="9"/>
       <c r="C95" s="7"/>
@@ -2811,7 +4041,7 @@
       <c r="U95" s="7"/>
       <c r="V95" s="7"/>
     </row>
-    <row r="96" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:22">
       <c r="A96" s="8"/>
       <c r="B96" s="9"/>
       <c r="C96" s="7"/>
@@ -2835,7 +4065,7 @@
       <c r="U96" s="7"/>
       <c r="V96" s="7"/>
     </row>
-    <row r="97" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:22">
       <c r="A97" s="8"/>
       <c r="B97" s="9"/>
       <c r="C97" s="7"/>
@@ -2859,7 +4089,7 @@
       <c r="U97" s="7"/>
       <c r="V97" s="7"/>
     </row>
-    <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:22">
       <c r="A98" s="8"/>
       <c r="B98" s="9"/>
       <c r="C98" s="7"/>
@@ -2883,7 +4113,7 @@
       <c r="U98" s="7"/>
       <c r="V98" s="7"/>
     </row>
-    <row r="99" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:22">
       <c r="A99" s="8"/>
       <c r="B99" s="9"/>
       <c r="C99" s="7"/>
@@ -2907,7 +4137,7 @@
       <c r="U99" s="7"/>
       <c r="V99" s="7"/>
     </row>
-    <row r="100" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:22">
       <c r="A100" s="8"/>
       <c r="B100" s="9"/>
       <c r="C100" s="7"/>
@@ -2931,7 +4161,7 @@
       <c r="U100" s="7"/>
       <c r="V100" s="7"/>
     </row>
-    <row r="101" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:22">
       <c r="A101" s="8"/>
       <c r="B101" s="9"/>
       <c r="C101" s="7"/>
@@ -2955,7 +4185,7 @@
       <c r="U101" s="7"/>
       <c r="V101" s="7"/>
     </row>
-    <row r="102" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:22">
       <c r="A102" s="8"/>
       <c r="B102" s="9"/>
       <c r="C102" s="7"/>
@@ -2979,7 +4209,7 @@
       <c r="U102" s="7"/>
       <c r="V102" s="7"/>
     </row>
-    <row r="103" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:22">
       <c r="A103" s="8"/>
       <c r="B103" s="9"/>
       <c r="C103" s="7"/>
@@ -3003,7 +4233,7 @@
       <c r="U103" s="7"/>
       <c r="V103" s="7"/>
     </row>
-    <row r="104" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:22">
       <c r="A104" s="8"/>
       <c r="B104" s="9"/>
       <c r="C104" s="7"/>
@@ -3027,7 +4257,7 @@
       <c r="U104" s="7"/>
       <c r="V104" s="7"/>
     </row>
-    <row r="105" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="3:20">
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
@@ -3047,7 +4277,7 @@
       <c r="S105" s="7"/>
       <c r="T105" s="7"/>
     </row>
-    <row r="106" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="3:20">
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
@@ -3067,7 +4297,7 @@
       <c r="S106" s="7"/>
       <c r="T106" s="7"/>
     </row>
-    <row r="107" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="3:20">
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
@@ -3087,7 +4317,7 @@
       <c r="S107" s="7"/>
       <c r="T107" s="7"/>
     </row>
-    <row r="108" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="3:20">
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
@@ -3107,7 +4337,7 @@
       <c r="S108" s="7"/>
       <c r="T108" s="7"/>
     </row>
-    <row r="109" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="3:20">
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
@@ -3127,7 +4357,7 @@
       <c r="S109" s="7"/>
       <c r="T109" s="7"/>
     </row>
-    <row r="110" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="3:20">
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
@@ -3147,7 +4377,7 @@
       <c r="S110" s="7"/>
       <c r="T110" s="7"/>
     </row>
-    <row r="111" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="3:20">
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
@@ -3167,7 +4397,7 @@
       <c r="S111" s="7"/>
       <c r="T111" s="7"/>
     </row>
-    <row r="112" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="3:20">
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
@@ -3187,7 +4417,7 @@
       <c r="S112" s="7"/>
       <c r="T112" s="7"/>
     </row>
-    <row r="113" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="3:20">
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
@@ -3207,7 +4437,7 @@
       <c r="S113" s="7"/>
       <c r="T113" s="7"/>
     </row>
-    <row r="114" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="3:20">
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -3227,7 +4457,7 @@
       <c r="S114" s="7"/>
       <c r="T114" s="7"/>
     </row>
-    <row r="115" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="3:20">
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
@@ -3247,7 +4477,7 @@
       <c r="S115" s="7"/>
       <c r="T115" s="7"/>
     </row>
-    <row r="116" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="3:20">
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
@@ -3267,7 +4497,7 @@
       <c r="S116" s="7"/>
       <c r="T116" s="7"/>
     </row>
-    <row r="117" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="3:20">
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
@@ -3287,7 +4517,7 @@
       <c r="S117" s="7"/>
       <c r="T117" s="7"/>
     </row>
-    <row r="118" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="3:20">
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
@@ -3307,7 +4537,7 @@
       <c r="S118" s="7"/>
       <c r="T118" s="7"/>
     </row>
-    <row r="119" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="3:20">
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
@@ -3327,7 +4557,7 @@
       <c r="S119" s="7"/>
       <c r="T119" s="7"/>
     </row>
-    <row r="120" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="3:20">
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
@@ -3347,7 +4577,7 @@
       <c r="S120" s="7"/>
       <c r="T120" s="7"/>
     </row>
-    <row r="121" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="3:20">
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
@@ -3367,7 +4597,7 @@
       <c r="S121" s="7"/>
       <c r="T121" s="7"/>
     </row>
-    <row r="122" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="3:20">
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
@@ -3387,7 +4617,7 @@
       <c r="S122" s="7"/>
       <c r="T122" s="7"/>
     </row>
-    <row r="123" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="3:20">
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
@@ -3407,7 +4637,7 @@
       <c r="S123" s="7"/>
       <c r="T123" s="7"/>
     </row>
-    <row r="124" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="3:20">
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
@@ -3427,7 +4657,7 @@
       <c r="S124" s="7"/>
       <c r="T124" s="7"/>
     </row>
-    <row r="125" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="3:20">
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
@@ -3447,7 +4677,7 @@
       <c r="S125" s="7"/>
       <c r="T125" s="7"/>
     </row>
-    <row r="126" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="3:20">
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
@@ -3467,7 +4697,7 @@
       <c r="S126" s="7"/>
       <c r="T126" s="7"/>
     </row>
-    <row r="127" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="3:20">
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
@@ -3487,7 +4717,7 @@
       <c r="S127" s="7"/>
       <c r="T127" s="7"/>
     </row>
-    <row r="128" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="3:20">
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
@@ -3507,7 +4737,7 @@
       <c r="S128" s="7"/>
       <c r="T128" s="7"/>
     </row>
-    <row r="129" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="3:20">
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
@@ -3527,7 +4757,7 @@
       <c r="S129" s="7"/>
       <c r="T129" s="7"/>
     </row>
-    <row r="130" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="3:20">
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
@@ -3547,7 +4777,7 @@
       <c r="S130" s="7"/>
       <c r="T130" s="7"/>
     </row>
-    <row r="131" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="3:20">
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
@@ -3567,7 +4797,7 @@
       <c r="S131" s="7"/>
       <c r="T131" s="7"/>
     </row>
-    <row r="132" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="3:20">
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
@@ -3587,7 +4817,7 @@
       <c r="S132" s="7"/>
       <c r="T132" s="7"/>
     </row>
-    <row r="133" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="3:20">
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
@@ -3607,7 +4837,7 @@
       <c r="S133" s="7"/>
       <c r="T133" s="7"/>
     </row>
-    <row r="134" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="3:20">
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
@@ -3627,7 +4857,7 @@
       <c r="S134" s="7"/>
       <c r="T134" s="7"/>
     </row>
-    <row r="135" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="3:20">
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
@@ -3647,7 +4877,7 @@
       <c r="S135" s="7"/>
       <c r="T135" s="7"/>
     </row>
-    <row r="136" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="3:20">
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
@@ -3667,7 +4897,7 @@
       <c r="S136" s="7"/>
       <c r="T136" s="7"/>
     </row>
-    <row r="137" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="3:20">
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
@@ -3687,7 +4917,7 @@
       <c r="S137" s="7"/>
       <c r="T137" s="7"/>
     </row>
-    <row r="138" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="3:20">
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
@@ -3707,7 +4937,7 @@
       <c r="S138" s="7"/>
       <c r="T138" s="7"/>
     </row>
-    <row r="139" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="3:20">
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
@@ -3727,7 +4957,7 @@
       <c r="S139" s="7"/>
       <c r="T139" s="7"/>
     </row>
-    <row r="140" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="3:20">
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
@@ -3747,7 +4977,7 @@
       <c r="S140" s="7"/>
       <c r="T140" s="7"/>
     </row>
-    <row r="141" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="3:20">
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
@@ -3767,7 +4997,7 @@
       <c r="S141" s="7"/>
       <c r="T141" s="7"/>
     </row>
-    <row r="142" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="3:20">
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
@@ -3787,7 +5017,7 @@
       <c r="S142" s="7"/>
       <c r="T142" s="7"/>
     </row>
-    <row r="143" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="3:20">
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
@@ -3807,7 +5037,7 @@
       <c r="S143" s="7"/>
       <c r="T143" s="7"/>
     </row>
-    <row r="144" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="3:20">
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
@@ -3827,7 +5057,7 @@
       <c r="S144" s="7"/>
       <c r="T144" s="7"/>
     </row>
-    <row r="145" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="3:20">
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -3847,7 +5077,7 @@
       <c r="S145" s="7"/>
       <c r="T145" s="7"/>
     </row>
-    <row r="146" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="3:20">
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -3867,7 +5097,7 @@
       <c r="S146" s="7"/>
       <c r="T146" s="7"/>
     </row>
-    <row r="147" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="3:20">
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -3887,7 +5117,7 @@
       <c r="S147" s="7"/>
       <c r="T147" s="7"/>
     </row>
-    <row r="148" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="3:20">
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
@@ -3907,7 +5137,7 @@
       <c r="S148" s="7"/>
       <c r="T148" s="7"/>
     </row>
-    <row r="149" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="3:20">
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
@@ -3927,7 +5157,7 @@
       <c r="S149" s="7"/>
       <c r="T149" s="7"/>
     </row>
-    <row r="150" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="3:20">
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
@@ -3947,7 +5177,7 @@
       <c r="S150" s="7"/>
       <c r="T150" s="7"/>
     </row>
-    <row r="151" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="3:20">
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -3967,7 +5197,7 @@
       <c r="S151" s="7"/>
       <c r="T151" s="7"/>
     </row>
-    <row r="152" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="3:20">
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
@@ -3987,7 +5217,7 @@
       <c r="S152" s="7"/>
       <c r="T152" s="7"/>
     </row>
-    <row r="153" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="3:20">
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -4007,7 +5237,7 @@
       <c r="S153" s="7"/>
       <c r="T153" s="7"/>
     </row>
-    <row r="154" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="3:20">
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -4027,7 +5257,7 @@
       <c r="S154" s="7"/>
       <c r="T154" s="7"/>
     </row>
-    <row r="155" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="3:20">
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -4047,7 +5277,7 @@
       <c r="S155" s="7"/>
       <c r="T155" s="7"/>
     </row>
-    <row r="156" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="3:20">
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -4067,7 +5297,7 @@
       <c r="S156" s="7"/>
       <c r="T156" s="7"/>
     </row>
-    <row r="157" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="3:20">
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -4087,7 +5317,7 @@
       <c r="S157" s="7"/>
       <c r="T157" s="7"/>
     </row>
-    <row r="158" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="3:20">
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -4107,7 +5337,7 @@
       <c r="S158" s="7"/>
       <c r="T158" s="7"/>
     </row>
-    <row r="159" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="3:20">
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -4127,7 +5357,7 @@
       <c r="S159" s="7"/>
       <c r="T159" s="7"/>
     </row>
-    <row r="160" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="3:20">
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -4147,7 +5377,7 @@
       <c r="S160" s="7"/>
       <c r="T160" s="7"/>
     </row>
-    <row r="161" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="3:20">
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -4167,7 +5397,7 @@
       <c r="S161" s="7"/>
       <c r="T161" s="7"/>
     </row>
-    <row r="162" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="3:20">
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -4187,7 +5417,7 @@
       <c r="S162" s="7"/>
       <c r="T162" s="7"/>
     </row>
-    <row r="163" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="3:20">
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -4207,7 +5437,7 @@
       <c r="S163" s="7"/>
       <c r="T163" s="7"/>
     </row>
-    <row r="164" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="3:20">
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -4227,7 +5457,7 @@
       <c r="S164" s="7"/>
       <c r="T164" s="7"/>
     </row>
-    <row r="165" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="3:20">
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -4247,7 +5477,7 @@
       <c r="S165" s="7"/>
       <c r="T165" s="7"/>
     </row>
-    <row r="166" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="3:20">
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -4267,7 +5497,7 @@
       <c r="S166" s="7"/>
       <c r="T166" s="7"/>
     </row>
-    <row r="167" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="3:20">
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -4287,7 +5517,7 @@
       <c r="S167" s="7"/>
       <c r="T167" s="7"/>
     </row>
-    <row r="168" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="3:20">
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -4307,7 +5537,7 @@
       <c r="S168" s="7"/>
       <c r="T168" s="7"/>
     </row>
-    <row r="169" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="3:20">
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -4327,7 +5557,7 @@
       <c r="S169" s="7"/>
       <c r="T169" s="7"/>
     </row>
-    <row r="170" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="3:20">
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -4347,7 +5577,7 @@
       <c r="S170" s="7"/>
       <c r="T170" s="7"/>
     </row>
-    <row r="171" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="3:20">
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -4367,7 +5597,7 @@
       <c r="S171" s="7"/>
       <c r="T171" s="7"/>
     </row>
-    <row r="172" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="3:20">
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -4387,7 +5617,7 @@
       <c r="S172" s="7"/>
       <c r="T172" s="7"/>
     </row>
-    <row r="173" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="3:20">
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -4407,7 +5637,7 @@
       <c r="S173" s="7"/>
       <c r="T173" s="7"/>
     </row>
-    <row r="174" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="3:20">
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -4427,7 +5657,7 @@
       <c r="S174" s="7"/>
       <c r="T174" s="7"/>
     </row>
-    <row r="175" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="3:20">
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -4447,7 +5677,7 @@
       <c r="S175" s="7"/>
       <c r="T175" s="7"/>
     </row>
-    <row r="176" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="3:20">
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
@@ -4467,7 +5697,7 @@
       <c r="S176" s="7"/>
       <c r="T176" s="7"/>
     </row>
-    <row r="177" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="3:20">
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
@@ -4487,7 +5717,7 @@
       <c r="S177" s="7"/>
       <c r="T177" s="7"/>
     </row>
-    <row r="178" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="3:20">
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -4507,7 +5737,7 @@
       <c r="S178" s="7"/>
       <c r="T178" s="7"/>
     </row>
-    <row r="179" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="3:20">
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -4527,7 +5757,7 @@
       <c r="S179" s="7"/>
       <c r="T179" s="7"/>
     </row>
-    <row r="180" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="3:20">
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -4547,7 +5777,7 @@
       <c r="S180" s="7"/>
       <c r="T180" s="7"/>
     </row>
-    <row r="181" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="3:20">
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -4567,7 +5797,7 @@
       <c r="S181" s="7"/>
       <c r="T181" s="7"/>
     </row>
-    <row r="182" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="3:20">
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -4587,7 +5817,7 @@
       <c r="S182" s="7"/>
       <c r="T182" s="7"/>
     </row>
-    <row r="183" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="3:20">
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -4607,7 +5837,7 @@
       <c r="S183" s="7"/>
       <c r="T183" s="7"/>
     </row>
-    <row r="184" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="3:20">
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -4627,7 +5857,7 @@
       <c r="S184" s="7"/>
       <c r="T184" s="7"/>
     </row>
-    <row r="185" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="3:20">
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -4647,7 +5877,7 @@
       <c r="S185" s="7"/>
       <c r="T185" s="7"/>
     </row>
-    <row r="186" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="3:20">
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
@@ -4667,7 +5897,7 @@
       <c r="S186" s="7"/>
       <c r="T186" s="7"/>
     </row>
-    <row r="187" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="3:20">
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -4687,7 +5917,7 @@
       <c r="S187" s="7"/>
       <c r="T187" s="7"/>
     </row>
-    <row r="188" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="3:20">
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -4707,7 +5937,7 @@
       <c r="S188" s="7"/>
       <c r="T188" s="7"/>
     </row>
-    <row r="189" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="3:20">
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -4727,7 +5957,7 @@
       <c r="S189" s="7"/>
       <c r="T189" s="7"/>
     </row>
-    <row r="190" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="3:20">
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -4747,7 +5977,7 @@
       <c r="S190" s="7"/>
       <c r="T190" s="7"/>
     </row>
-    <row r="191" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="3:20">
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -4767,7 +5997,7 @@
       <c r="S191" s="7"/>
       <c r="T191" s="7"/>
     </row>
-    <row r="192" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="3:20">
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -4787,7 +6017,7 @@
       <c r="S192" s="7"/>
       <c r="T192" s="7"/>
     </row>
-    <row r="193" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="3:20">
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
@@ -4807,7 +6037,7 @@
       <c r="S193" s="7"/>
       <c r="T193" s="7"/>
     </row>
-    <row r="194" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="3:20">
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
@@ -4827,7 +6057,7 @@
       <c r="S194" s="7"/>
       <c r="T194" s="7"/>
     </row>
-    <row r="195" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="3:20">
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
@@ -4847,7 +6077,7 @@
       <c r="S195" s="7"/>
       <c r="T195" s="7"/>
     </row>
-    <row r="196" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="3:20">
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -4867,7 +6097,7 @@
       <c r="S196" s="7"/>
       <c r="T196" s="7"/>
     </row>
-    <row r="197" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="3:20">
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
@@ -4887,7 +6117,7 @@
       <c r="S197" s="7"/>
       <c r="T197" s="7"/>
     </row>
-    <row r="198" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="3:20">
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
@@ -4907,7 +6137,7 @@
       <c r="S198" s="7"/>
       <c r="T198" s="7"/>
     </row>
-    <row r="199" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="3:20">
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -4927,7 +6157,7 @@
       <c r="S199" s="7"/>
       <c r="T199" s="7"/>
     </row>
-    <row r="200" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="3:20">
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -4947,7 +6177,7 @@
       <c r="S200" s="7"/>
       <c r="T200" s="7"/>
     </row>
-    <row r="201" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="3:20">
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -4967,7 +6197,7 @@
       <c r="S201" s="7"/>
       <c r="T201" s="7"/>
     </row>
-    <row r="202" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="3:20">
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -4987,7 +6217,7 @@
       <c r="S202" s="7"/>
       <c r="T202" s="7"/>
     </row>
-    <row r="203" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="3:20">
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -5007,7 +6237,7 @@
       <c r="S203" s="7"/>
       <c r="T203" s="7"/>
     </row>
-    <row r="204" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="3:20">
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -5027,7 +6257,7 @@
       <c r="S204" s="7"/>
       <c r="T204" s="7"/>
     </row>
-    <row r="205" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="3:20">
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -5047,7 +6277,7 @@
       <c r="S205" s="7"/>
       <c r="T205" s="7"/>
     </row>
-    <row r="206" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="3:20">
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -5067,7 +6297,7 @@
       <c r="S206" s="7"/>
       <c r="T206" s="7"/>
     </row>
-    <row r="207" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="3:20">
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -5087,7 +6317,7 @@
       <c r="S207" s="7"/>
       <c r="T207" s="7"/>
     </row>
-    <row r="208" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="3:20">
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -5107,7 +6337,7 @@
       <c r="S208" s="7"/>
       <c r="T208" s="7"/>
     </row>
-    <row r="209" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="3:20">
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -5127,7 +6357,7 @@
       <c r="S209" s="7"/>
       <c r="T209" s="7"/>
     </row>
-    <row r="210" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="3:20">
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -5147,7 +6377,7 @@
       <c r="S210" s="7"/>
       <c r="T210" s="7"/>
     </row>
-    <row r="211" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="3:20">
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -5167,7 +6397,7 @@
       <c r="S211" s="7"/>
       <c r="T211" s="7"/>
     </row>
-    <row r="212" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="3:20">
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
@@ -5187,7 +6417,7 @@
       <c r="S212" s="7"/>
       <c r="T212" s="7"/>
     </row>
-    <row r="213" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="3:20">
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
@@ -5207,7 +6437,7 @@
       <c r="S213" s="7"/>
       <c r="T213" s="7"/>
     </row>
-    <row r="214" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="3:20">
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
@@ -5227,7 +6457,7 @@
       <c r="S214" s="7"/>
       <c r="T214" s="7"/>
     </row>
-    <row r="215" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="3:20">
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
@@ -5247,7 +6477,7 @@
       <c r="S215" s="7"/>
       <c r="T215" s="7"/>
     </row>
-    <row r="216" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="3:20">
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
@@ -5267,7 +6497,7 @@
       <c r="S216" s="7"/>
       <c r="T216" s="7"/>
     </row>
-    <row r="217" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="3:20">
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
@@ -5287,7 +6517,7 @@
       <c r="S217" s="7"/>
       <c r="T217" s="7"/>
     </row>
-    <row r="218" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="3:20">
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
@@ -5307,7 +6537,7 @@
       <c r="S218" s="7"/>
       <c r="T218" s="7"/>
     </row>
-    <row r="219" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="3:20">
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
@@ -5327,7 +6557,7 @@
       <c r="S219" s="7"/>
       <c r="T219" s="7"/>
     </row>
-    <row r="220" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="3:20">
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -5347,7 +6577,7 @@
       <c r="S220" s="7"/>
       <c r="T220" s="7"/>
     </row>
-    <row r="221" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="3:20">
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -5367,7 +6597,7 @@
       <c r="S221" s="7"/>
       <c r="T221" s="7"/>
     </row>
-    <row r="222" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="3:20">
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -5387,7 +6617,7 @@
       <c r="S222" s="7"/>
       <c r="T222" s="7"/>
     </row>
-    <row r="223" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="3:20">
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -5407,7 +6637,7 @@
       <c r="S223" s="7"/>
       <c r="T223" s="7"/>
     </row>
-    <row r="224" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="3:20">
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -5427,7 +6657,7 @@
       <c r="S224" s="7"/>
       <c r="T224" s="7"/>
     </row>
-    <row r="225" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="3:20">
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -5447,7 +6677,7 @@
       <c r="S225" s="7"/>
       <c r="T225" s="7"/>
     </row>
-    <row r="226" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="3:20">
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -5467,7 +6697,7 @@
       <c r="S226" s="7"/>
       <c r="T226" s="7"/>
     </row>
-    <row r="227" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="3:20">
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -5487,7 +6717,7 @@
       <c r="S227" s="7"/>
       <c r="T227" s="7"/>
     </row>
-    <row r="228" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="3:20">
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -5507,7 +6737,7 @@
       <c r="S228" s="7"/>
       <c r="T228" s="7"/>
     </row>
-    <row r="229" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="3:20">
       <c r="C229" s="7"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -5527,7 +6757,7 @@
       <c r="S229" s="7"/>
       <c r="T229" s="7"/>
     </row>
-    <row r="230" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="3:20">
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -5547,7 +6777,7 @@
       <c r="S230" s="7"/>
       <c r="T230" s="7"/>
     </row>
-    <row r="231" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="3:20">
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -5567,7 +6797,7 @@
       <c r="S231" s="7"/>
       <c r="T231" s="7"/>
     </row>
-    <row r="232" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="3:20">
       <c r="C232" s="7"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -5587,7 +6817,7 @@
       <c r="S232" s="7"/>
       <c r="T232" s="7"/>
     </row>
-    <row r="233" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="3:20">
       <c r="C233" s="7"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -5607,7 +6837,7 @@
       <c r="S233" s="7"/>
       <c r="T233" s="7"/>
     </row>
-    <row r="234" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="3:20">
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -5627,7 +6857,7 @@
       <c r="S234" s="7"/>
       <c r="T234" s="7"/>
     </row>
-    <row r="235" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="3:20">
       <c r="C235" s="7"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
@@ -5647,7 +6877,7 @@
       <c r="S235" s="7"/>
       <c r="T235" s="7"/>
     </row>
-    <row r="236" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="3:20">
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -5667,7 +6897,7 @@
       <c r="S236" s="7"/>
       <c r="T236" s="7"/>
     </row>
-    <row r="237" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="3:20">
       <c r="C237" s="7"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -5687,7 +6917,7 @@
       <c r="S237" s="7"/>
       <c r="T237" s="7"/>
     </row>
-    <row r="238" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="3:20">
       <c r="C238" s="7"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -5707,7 +6937,7 @@
       <c r="S238" s="7"/>
       <c r="T238" s="7"/>
     </row>
-    <row r="239" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="3:20">
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
@@ -5727,7 +6957,7 @@
       <c r="S239" s="7"/>
       <c r="T239" s="7"/>
     </row>
-    <row r="240" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="3:20">
       <c r="C240" s="7"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
@@ -5747,7 +6977,7 @@
       <c r="S240" s="7"/>
       <c r="T240" s="7"/>
     </row>
-    <row r="241" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="3:20">
       <c r="C241" s="7"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
@@ -5767,7 +6997,7 @@
       <c r="S241" s="7"/>
       <c r="T241" s="7"/>
     </row>
-    <row r="242" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="3:20">
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -5787,7 +7017,7 @@
       <c r="S242" s="7"/>
       <c r="T242" s="7"/>
     </row>
-    <row r="243" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="3:20">
       <c r="C243" s="7"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -5807,7 +7037,7 @@
       <c r="S243" s="7"/>
       <c r="T243" s="7"/>
     </row>
-    <row r="244" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="3:20">
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -5827,7 +7057,7 @@
       <c r="S244" s="7"/>
       <c r="T244" s="7"/>
     </row>
-    <row r="245" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="3:20">
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -5847,7 +7077,7 @@
       <c r="S245" s="7"/>
       <c r="T245" s="7"/>
     </row>
-    <row r="246" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="3:20">
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -5867,7 +7097,7 @@
       <c r="S246" s="7"/>
       <c r="T246" s="7"/>
     </row>
-    <row r="247" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="3:20">
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -5887,7 +7117,7 @@
       <c r="S247" s="7"/>
       <c r="T247" s="7"/>
     </row>
-    <row r="248" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="3:20">
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -5907,7 +7137,7 @@
       <c r="S248" s="7"/>
       <c r="T248" s="7"/>
     </row>
-    <row r="249" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="3:20">
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -5927,7 +7157,7 @@
       <c r="S249" s="7"/>
       <c r="T249" s="7"/>
     </row>
-    <row r="250" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="3:20">
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
@@ -5947,7 +7177,7 @@
       <c r="S250" s="7"/>
       <c r="T250" s="7"/>
     </row>
-    <row r="251" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="3:20">
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
@@ -5967,7 +7197,7 @@
       <c r="S251" s="7"/>
       <c r="T251" s="7"/>
     </row>
-    <row r="252" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="3:20">
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -5987,7 +7217,7 @@
       <c r="S252" s="7"/>
       <c r="T252" s="7"/>
     </row>
-    <row r="253" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="3:20">
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -6007,7 +7237,7 @@
       <c r="S253" s="7"/>
       <c r="T253" s="7"/>
     </row>
-    <row r="254" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="3:20">
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -6027,7 +7257,7 @@
       <c r="S254" s="7"/>
       <c r="T254" s="7"/>
     </row>
-    <row r="255" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="3:20">
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
@@ -6047,7 +7277,7 @@
       <c r="S255" s="7"/>
       <c r="T255" s="7"/>
     </row>
-    <row r="256" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="3:20">
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -6067,7 +7297,7 @@
       <c r="S256" s="7"/>
       <c r="T256" s="7"/>
     </row>
-    <row r="257" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="3:20">
       <c r="C257" s="7"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -6087,7 +7317,7 @@
       <c r="S257" s="7"/>
       <c r="T257" s="7"/>
     </row>
-    <row r="258" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="3:20">
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -6107,7 +7337,7 @@
       <c r="S258" s="7"/>
       <c r="T258" s="7"/>
     </row>
-    <row r="259" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="3:20">
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
@@ -6127,7 +7357,7 @@
       <c r="S259" s="7"/>
       <c r="T259" s="7"/>
     </row>
-    <row r="260" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="3:20">
       <c r="C260" s="7"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
@@ -6147,7 +7377,7 @@
       <c r="S260" s="7"/>
       <c r="T260" s="7"/>
     </row>
-    <row r="261" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="3:20">
       <c r="C261" s="7"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
@@ -6167,7 +7397,7 @@
       <c r="S261" s="7"/>
       <c r="T261" s="7"/>
     </row>
-    <row r="262" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="3:20">
       <c r="C262" s="7"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -6187,7 +7417,7 @@
       <c r="S262" s="7"/>
       <c r="T262" s="7"/>
     </row>
-    <row r="263" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="3:20">
       <c r="C263" s="7"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
@@ -6207,7 +7437,7 @@
       <c r="S263" s="7"/>
       <c r="T263" s="7"/>
     </row>
-    <row r="264" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="3:20">
       <c r="C264" s="7"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -6227,7 +7457,7 @@
       <c r="S264" s="7"/>
       <c r="T264" s="7"/>
     </row>
-    <row r="265" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="3:20">
       <c r="C265" s="7"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -6247,7 +7477,7 @@
       <c r="S265" s="7"/>
       <c r="T265" s="7"/>
     </row>
-    <row r="266" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="3:20">
       <c r="C266" s="7"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -6267,7 +7497,7 @@
       <c r="S266" s="7"/>
       <c r="T266" s="7"/>
     </row>
-    <row r="267" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="3:20">
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
@@ -6287,7 +7517,7 @@
       <c r="S267" s="7"/>
       <c r="T267" s="7"/>
     </row>
-    <row r="268" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="3:20">
       <c r="C268" s="7"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
@@ -6307,7 +7537,7 @@
       <c r="S268" s="7"/>
       <c r="T268" s="7"/>
     </row>
-    <row r="269" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="3:20">
       <c r="C269" s="7"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
@@ -6327,7 +7557,7 @@
       <c r="S269" s="7"/>
       <c r="T269" s="7"/>
     </row>
-    <row r="270" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="3:20">
       <c r="C270" s="7"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -6347,7 +7577,7 @@
       <c r="S270" s="7"/>
       <c r="T270" s="7"/>
     </row>
-    <row r="271" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="3:20">
       <c r="C271" s="7"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -6367,7 +7597,7 @@
       <c r="S271" s="7"/>
       <c r="T271" s="7"/>
     </row>
-    <row r="272" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="3:20">
       <c r="C272" s="7"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
@@ -6387,7 +7617,7 @@
       <c r="S272" s="7"/>
       <c r="T272" s="7"/>
     </row>
-    <row r="273" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="3:20">
       <c r="C273" s="7"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
@@ -6407,7 +7637,7 @@
       <c r="S273" s="7"/>
       <c r="T273" s="7"/>
     </row>
-    <row r="274" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="3:20">
       <c r="C274" s="7"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -6427,7 +7657,7 @@
       <c r="S274" s="7"/>
       <c r="T274" s="7"/>
     </row>
-    <row r="275" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="3:20">
       <c r="C275" s="7"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -6447,7 +7677,7 @@
       <c r="S275" s="7"/>
       <c r="T275" s="7"/>
     </row>
-    <row r="276" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="3:20">
       <c r="C276" s="7"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -6467,7 +7697,7 @@
       <c r="S276" s="7"/>
       <c r="T276" s="7"/>
     </row>
-    <row r="277" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="3:20">
       <c r="C277" s="7"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -6487,7 +7717,7 @@
       <c r="S277" s="7"/>
       <c r="T277" s="7"/>
     </row>
-    <row r="278" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="3:20">
       <c r="C278" s="7"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -6507,7 +7737,7 @@
       <c r="S278" s="7"/>
       <c r="T278" s="7"/>
     </row>
-    <row r="279" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="3:20">
       <c r="C279" s="7"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -6527,7 +7757,7 @@
       <c r="S279" s="7"/>
       <c r="T279" s="7"/>
     </row>
-    <row r="280" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="3:20">
       <c r="C280" s="7"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
@@ -6547,7 +7777,7 @@
       <c r="S280" s="7"/>
       <c r="T280" s="7"/>
     </row>
-    <row r="281" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="3:20">
       <c r="C281" s="7"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
@@ -6567,7 +7797,7 @@
       <c r="S281" s="7"/>
       <c r="T281" s="7"/>
     </row>
-    <row r="282" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="3:20">
       <c r="C282" s="7"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
@@ -6587,7 +7817,7 @@
       <c r="S282" s="7"/>
       <c r="T282" s="7"/>
     </row>
-    <row r="283" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="3:20">
       <c r="C283" s="7"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -6608,63 +7838,96 @@
       <c r="T283" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:V104"/>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
+  <autoFilter ref="C1:V104">
+    <extLst/>
+  </autoFilter>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K3;K20:K1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7238095238095" defaultRowHeight="15"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7238095238095" defaultRowHeight="15"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/PLANILLA MODELO.xlsx
+++ b/PLANILLA MODELO.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$C$1:$V$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$D$1:$W$104</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>sim</t>
   </si>
@@ -88,7 +88,7 @@
     <t>Usuario logística</t>
   </si>
   <si>
-    <t>1169369297</t>
+    <t>123</t>
   </si>
   <si>
     <t>JERRY ROMER</t>
@@ -121,88 +121,13 @@
     <t xml:space="preserve">LUGAR DE TRABAJO DEL TITULAR- BARBERIA Y PELUQUERIA "PELOS Y PELITOS"- DEJAR EN MANO DEL TITULAR </t>
   </si>
   <si>
-    <t>1127160925</t>
+    <t>456</t>
   </si>
   <si>
-    <t>1</t>
+    <t>789</t>
   </si>
   <si>
-    <t>Matias Sebastian</t>
-  </si>
-  <si>
-    <t>Acciaio</t>
-  </si>
-  <si>
-    <t>36522124</t>
-  </si>
-  <si>
-    <t>Buenos aires</t>
-  </si>
-  <si>
-    <t>caba</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>PANAMA</t>
-  </si>
-  <si>
-    <t>1729</t>
-  </si>
-  <si>
-    <t>Talcahuano y parana</t>
-  </si>
-  <si>
-    <t>despues de las 19hs</t>
-  </si>
-  <si>
-    <t>123123</t>
-  </si>
-  <si>
-    <t>1512523</t>
-  </si>
-  <si>
-    <t>623451</t>
-  </si>
-  <si>
-    <t>7613651</t>
-  </si>
-  <si>
-    <t>734723361</t>
-  </si>
-  <si>
-    <t>16236123</t>
-  </si>
-  <si>
-    <t>1236347</t>
-  </si>
-  <si>
-    <t>13265123512</t>
-  </si>
-  <si>
-    <t>6136512356</t>
-  </si>
-  <si>
-    <t>15231235</t>
-  </si>
-  <si>
-    <t>152125</t>
-  </si>
-  <si>
-    <t>112545314</t>
-  </si>
-  <si>
-    <t>51235125</t>
-  </si>
-  <si>
-    <t>512351235</t>
-  </si>
-  <si>
-    <t>1231451515</t>
-  </si>
-  <si>
-    <t>5123512</t>
+    <t>111</t>
   </si>
 </sst>
 </file>
@@ -210,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -248,6 +173,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -255,16 +181,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,9 +196,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,6 +251,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -321,14 +269,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,16 +287,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,9 +302,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,13 +311,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,19 +343,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,7 +361,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,115 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,25 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,17 +555,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,17 +620,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,153 +643,142 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1268,975 +1193,638 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V283"/>
+  <dimension ref="B1:W283"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4380952380952" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5809523809524" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="17.4" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1238095238095" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.8571428571429" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1238095238095" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="39.7047619047619" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.4" style="1" customWidth="1"/>
-    <col min="11" max="11" width="47.0190476190476" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.3047619047619" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.0095238095238" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.71428571428571" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5904761904762" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.2857142857143" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5714285714286" style="1" customWidth="1"/>
-    <col min="18" max="18" width="25" style="1" customWidth="1"/>
-    <col min="19" max="19" width="66.2857142857143" style="1" customWidth="1"/>
-    <col min="20" max="20" width="216.428571428571" style="1" customWidth="1"/>
-    <col min="21" max="21" width="24.5714285714286" style="1" customWidth="1"/>
-    <col min="22" max="22" width="20.2952380952381" style="1" customWidth="1"/>
-    <col min="23" max="1024" width="11.4190476190476" style="1"/>
+    <col min="2" max="2" width="27.5809523809524" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="17.4" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1238095238095" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.8571428571429" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1238095238095" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="10" max="10" width="39.7047619047619" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.4" style="1" customWidth="1"/>
+    <col min="12" max="12" width="47.0190476190476" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.3047619047619" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.0095238095238" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.71428571428571" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5904761904762" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.2857142857143" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5714285714286" style="1" customWidth="1"/>
+    <col min="19" max="19" width="25" style="1" customWidth="1"/>
+    <col min="20" max="20" width="66.2857142857143" style="1" customWidth="1"/>
+    <col min="21" max="21" width="216.428571428571" style="1" customWidth="1"/>
+    <col min="22" max="22" width="24.5714285714286" style="1" customWidth="1"/>
+    <col min="23" max="23" width="20.2952380952381" style="1" customWidth="1"/>
+    <col min="24" max="1025" width="11.4190476190476" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:23">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="2:23">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="7">
+      <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="7"/>
+      <c r="T2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="7" t="s">
+      <c r="W2" s="7"/>
+    </row>
+    <row r="3" spans="2:23">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>35</v>
+      <c r="E3" s="7">
+        <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="7" t="s">
-        <v>43</v>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>44</v>
+      <c r="U3" s="7" t="s">
+        <v>32</v>
       </c>
-      <c r="U3" s="7"/>
       <c r="V3" s="7"/>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="W3" s="7"/>
+    </row>
+    <row r="4" spans="2:23">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>35</v>
+      <c r="E4" s="7">
+        <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="7" t="s">
-        <v>43</v>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>44</v>
+      <c r="U4" s="7" t="s">
+        <v>32</v>
       </c>
-      <c r="U4" s="7"/>
       <c r="V4" s="7"/>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="W4" s="7"/>
+    </row>
+    <row r="5" spans="2:23">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
       <c r="F5" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="7" t="s">
-        <v>43</v>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="T5" s="7" t="s">
-        <v>44</v>
+      <c r="U5" s="7" t="s">
+        <v>32</v>
       </c>
-      <c r="U5" s="7"/>
       <c r="V5" s="7"/>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="W5" s="7"/>
+    </row>
+    <row r="6" spans="2:23">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="W6" s="7"/>
+    </row>
+    <row r="7" spans="2:23">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="W7" s="7"/>
+    </row>
+    <row r="8" spans="2:23">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="W8" s="7"/>
+    </row>
+    <row r="9" spans="2:23">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="W9" s="7"/>
+    </row>
+    <row r="10" spans="2:23">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="W10" s="7"/>
+    </row>
+    <row r="11" spans="2:23">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="W11" s="7"/>
+    </row>
+    <row r="12" spans="2:23">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="W12" s="7"/>
+    </row>
+    <row r="13" spans="2:23">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="W13" s="7"/>
+    </row>
+    <row r="14" spans="2:23">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="W14" s="7"/>
+    </row>
+    <row r="15" spans="2:23">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="W15" s="7"/>
+    </row>
+    <row r="16" spans="2:23">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="W16" s="7"/>
+    </row>
+    <row r="17" spans="2:23">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="W17" s="7"/>
+    </row>
+    <row r="18" spans="2:23">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="W18" s="7"/>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="7"/>
+      <c r="W19" s="7"/>
+    </row>
+    <row r="20" spans="2:23">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -2256,11 +1844,11 @@
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="7"/>
+      <c r="W20" s="7"/>
+    </row>
+    <row r="21" spans="2:23">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -2280,11 +1868,11 @@
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="7"/>
+      <c r="W21" s="7"/>
+    </row>
+    <row r="22" spans="2:23">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -2304,11 +1892,11 @@
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="7"/>
+      <c r="W22" s="7"/>
+    </row>
+    <row r="23" spans="2:23">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -2328,11 +1916,11 @@
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="7"/>
+      <c r="W23" s="7"/>
+    </row>
+    <row r="24" spans="2:23">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -2352,11 +1940,11 @@
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="7"/>
+      <c r="W24" s="7"/>
+    </row>
+    <row r="25" spans="2:23">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -2376,11 +1964,11 @@
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="7"/>
+      <c r="W25" s="7"/>
+    </row>
+    <row r="26" spans="2:23">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -2400,11 +1988,11 @@
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="7"/>
+      <c r="W26" s="7"/>
+    </row>
+    <row r="27" spans="2:23">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -2424,11 +2012,11 @@
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="7"/>
+      <c r="W27" s="7"/>
+    </row>
+    <row r="28" spans="2:23">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -2448,11 +2036,11 @@
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="7"/>
+      <c r="W28" s="7"/>
+    </row>
+    <row r="29" spans="2:23">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -2472,11 +2060,11 @@
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="7"/>
+      <c r="W29" s="7"/>
+    </row>
+    <row r="30" spans="2:23">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -2496,11 +2084,11 @@
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="7"/>
+      <c r="W30" s="7"/>
+    </row>
+    <row r="31" spans="2:23">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -2520,11 +2108,11 @@
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="7"/>
+      <c r="W31" s="7"/>
+    </row>
+    <row r="32" spans="2:23">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -2544,11 +2132,11 @@
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
-    </row>
-    <row r="33" spans="1:22">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="7"/>
+      <c r="W32" s="7"/>
+    </row>
+    <row r="33" spans="2:23">
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -2568,11 +2156,11 @@
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
-    </row>
-    <row r="34" spans="1:22">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="7"/>
+      <c r="W33" s="7"/>
+    </row>
+    <row r="34" spans="2:23">
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -2592,11 +2180,11 @@
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
-    </row>
-    <row r="35" spans="1:22">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="7"/>
+      <c r="W34" s="7"/>
+    </row>
+    <row r="35" spans="2:23">
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -2616,11 +2204,11 @@
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
-    </row>
-    <row r="36" spans="1:22">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="7"/>
+      <c r="W35" s="7"/>
+    </row>
+    <row r="36" spans="2:23">
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -2640,11 +2228,11 @@
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
-    </row>
-    <row r="37" spans="1:22">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="7"/>
+      <c r="W36" s="7"/>
+    </row>
+    <row r="37" spans="2:23">
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -2664,11 +2252,11 @@
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
-    </row>
-    <row r="38" spans="1:22">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="7"/>
+      <c r="W37" s="7"/>
+    </row>
+    <row r="38" spans="2:23">
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -2688,11 +2276,11 @@
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
-    </row>
-    <row r="39" spans="1:22">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="7"/>
+      <c r="W38" s="7"/>
+    </row>
+    <row r="39" spans="2:23">
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -2712,11 +2300,11 @@
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
-    </row>
-    <row r="40" spans="1:22">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="7"/>
+      <c r="W39" s="7"/>
+    </row>
+    <row r="40" spans="2:23">
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -2736,11 +2324,11 @@
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
-    </row>
-    <row r="41" spans="1:22">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="7"/>
+      <c r="W40" s="7"/>
+    </row>
+    <row r="41" spans="2:23">
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -2760,11 +2348,11 @@
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
-    </row>
-    <row r="42" spans="1:22">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="7"/>
+      <c r="W41" s="7"/>
+    </row>
+    <row r="42" spans="2:23">
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -2784,11 +2372,11 @@
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
-    </row>
-    <row r="43" spans="1:22">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="7"/>
+      <c r="W42" s="7"/>
+    </row>
+    <row r="43" spans="2:23">
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -2808,11 +2396,11 @@
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
-    </row>
-    <row r="44" spans="1:22">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="7"/>
+      <c r="W43" s="7"/>
+    </row>
+    <row r="44" spans="2:23">
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -2832,11 +2420,11 @@
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
-    </row>
-    <row r="45" spans="1:22">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="7"/>
+      <c r="W44" s="7"/>
+    </row>
+    <row r="45" spans="2:23">
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -2856,11 +2444,11 @@
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
-    </row>
-    <row r="46" spans="1:22">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="7"/>
+      <c r="W45" s="7"/>
+    </row>
+    <row r="46" spans="2:23">
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
@@ -2880,11 +2468,11 @@
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
-    </row>
-    <row r="47" spans="1:22">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="7"/>
+      <c r="W46" s="7"/>
+    </row>
+    <row r="47" spans="2:23">
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -2904,11 +2492,11 @@
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
-    </row>
-    <row r="48" spans="1:22">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="7"/>
+      <c r="W47" s="7"/>
+    </row>
+    <row r="48" spans="2:23">
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -2928,11 +2516,11 @@
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
-    </row>
-    <row r="49" spans="1:22">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="7"/>
+      <c r="W48" s="7"/>
+    </row>
+    <row r="49" spans="2:23">
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -2952,11 +2540,11 @@
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
-    </row>
-    <row r="50" spans="1:22">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="7"/>
+      <c r="W49" s="7"/>
+    </row>
+    <row r="50" spans="2:23">
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -2976,11 +2564,11 @@
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
-    </row>
-    <row r="51" spans="1:22">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="7"/>
+      <c r="W50" s="7"/>
+    </row>
+    <row r="51" spans="2:23">
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -3000,11 +2588,11 @@
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
-    </row>
-    <row r="52" spans="1:22">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="7"/>
+      <c r="W51" s="7"/>
+    </row>
+    <row r="52" spans="2:23">
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -3024,11 +2612,11 @@
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
       <c r="V52" s="7"/>
-    </row>
-    <row r="53" spans="1:22">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="7"/>
+      <c r="W52" s="7"/>
+    </row>
+    <row r="53" spans="2:23">
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -3048,11 +2636,11 @@
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
-    </row>
-    <row r="54" spans="1:22">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="7"/>
+      <c r="W53" s="7"/>
+    </row>
+    <row r="54" spans="2:23">
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -3072,11 +2660,11 @@
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
       <c r="V54" s="7"/>
-    </row>
-    <row r="55" spans="1:22">
-      <c r="A55" s="8"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="7"/>
+      <c r="W54" s="7"/>
+    </row>
+    <row r="55" spans="2:23">
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
@@ -3096,11 +2684,11 @@
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
-    </row>
-    <row r="56" spans="1:22">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="7"/>
+      <c r="W55" s="7"/>
+    </row>
+    <row r="56" spans="2:23">
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
@@ -3120,11 +2708,11 @@
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
-    </row>
-    <row r="57" spans="1:22">
-      <c r="A57" s="8"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="7"/>
+      <c r="W56" s="7"/>
+    </row>
+    <row r="57" spans="2:23">
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
@@ -3144,11 +2732,11 @@
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
-    </row>
-    <row r="58" spans="1:22">
-      <c r="A58" s="8"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="7"/>
+      <c r="W57" s="7"/>
+    </row>
+    <row r="58" spans="2:23">
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -3168,11 +2756,11 @@
       <c r="T58" s="7"/>
       <c r="U58" s="7"/>
       <c r="V58" s="7"/>
-    </row>
-    <row r="59" spans="1:22">
-      <c r="A59" s="8"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="7"/>
+      <c r="W58" s="7"/>
+    </row>
+    <row r="59" spans="2:23">
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
@@ -3192,11 +2780,11 @@
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
-    </row>
-    <row r="60" spans="1:22">
-      <c r="A60" s="8"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="7"/>
+      <c r="W59" s="7"/>
+    </row>
+    <row r="60" spans="2:23">
+      <c r="B60" s="8"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -3216,11 +2804,11 @@
       <c r="T60" s="7"/>
       <c r="U60" s="7"/>
       <c r="V60" s="7"/>
-    </row>
-    <row r="61" spans="1:22">
-      <c r="A61" s="8"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="7"/>
+      <c r="W60" s="7"/>
+    </row>
+    <row r="61" spans="2:23">
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
@@ -3240,11 +2828,11 @@
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
       <c r="V61" s="7"/>
-    </row>
-    <row r="62" spans="1:22">
-      <c r="A62" s="8"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="7"/>
+      <c r="W61" s="7"/>
+    </row>
+    <row r="62" spans="2:23">
+      <c r="B62" s="8"/>
+      <c r="C62" s="9"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
@@ -3264,11 +2852,11 @@
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
       <c r="V62" s="7"/>
-    </row>
-    <row r="63" spans="1:22">
-      <c r="A63" s="8"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="7"/>
+      <c r="W62" s="7"/>
+    </row>
+    <row r="63" spans="2:23">
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
@@ -3288,11 +2876,11 @@
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
-    </row>
-    <row r="64" spans="1:22">
-      <c r="A64" s="8"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="7"/>
+      <c r="W63" s="7"/>
+    </row>
+    <row r="64" spans="2:23">
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -3312,11 +2900,11 @@
       <c r="T64" s="7"/>
       <c r="U64" s="7"/>
       <c r="V64" s="7"/>
-    </row>
-    <row r="65" spans="1:21">
-      <c r="A65" s="8"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="7"/>
+      <c r="W64" s="7"/>
+    </row>
+    <row r="65" spans="2:22">
+      <c r="B65" s="8"/>
+      <c r="C65" s="9"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
@@ -3335,11 +2923,11 @@
       <c r="S65" s="7"/>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
-    </row>
-    <row r="66" spans="1:21">
-      <c r="A66" s="8"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="7"/>
+      <c r="V65" s="7"/>
+    </row>
+    <row r="66" spans="2:22">
+      <c r="B66" s="8"/>
+      <c r="C66" s="9"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -3358,11 +2946,11 @@
       <c r="S66" s="7"/>
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
-    </row>
-    <row r="67" spans="1:21">
-      <c r="A67" s="8"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="7"/>
+      <c r="V66" s="7"/>
+    </row>
+    <row r="67" spans="2:22">
+      <c r="B67" s="8"/>
+      <c r="C67" s="9"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
@@ -3381,11 +2969,11 @@
       <c r="S67" s="7"/>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
-    </row>
-    <row r="68" spans="1:21">
-      <c r="A68" s="8"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="7"/>
+      <c r="V67" s="7"/>
+    </row>
+    <row r="68" spans="2:22">
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
@@ -3404,11 +2992,11 @@
       <c r="S68" s="7"/>
       <c r="T68" s="7"/>
       <c r="U68" s="7"/>
-    </row>
-    <row r="69" spans="1:21">
-      <c r="A69" s="8"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="7"/>
+      <c r="V68" s="7"/>
+    </row>
+    <row r="69" spans="2:22">
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -3427,11 +3015,11 @@
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
-    </row>
-    <row r="70" spans="1:21">
-      <c r="A70" s="8"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="7"/>
+      <c r="V69" s="7"/>
+    </row>
+    <row r="70" spans="2:22">
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
@@ -3450,11 +3038,11 @@
       <c r="S70" s="7"/>
       <c r="T70" s="7"/>
       <c r="U70" s="7"/>
-    </row>
-    <row r="71" spans="1:21">
-      <c r="A71" s="8"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="7"/>
+      <c r="V70" s="7"/>
+    </row>
+    <row r="71" spans="2:22">
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
@@ -3473,11 +3061,11 @@
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
-    </row>
-    <row r="72" spans="1:21">
-      <c r="A72" s="8"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="7"/>
+      <c r="V71" s="7"/>
+    </row>
+    <row r="72" spans="2:22">
+      <c r="B72" s="8"/>
+      <c r="C72" s="9"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
@@ -3496,11 +3084,11 @@
       <c r="S72" s="7"/>
       <c r="T72" s="7"/>
       <c r="U72" s="7"/>
-    </row>
-    <row r="73" spans="1:21">
-      <c r="A73" s="8"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="7"/>
+      <c r="V72" s="7"/>
+    </row>
+    <row r="73" spans="2:22">
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
@@ -3519,11 +3107,11 @@
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
-    </row>
-    <row r="74" spans="1:21">
-      <c r="A74" s="8"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="7"/>
+      <c r="V73" s="7"/>
+    </row>
+    <row r="74" spans="2:22">
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
@@ -3542,11 +3130,11 @@
       <c r="S74" s="7"/>
       <c r="T74" s="7"/>
       <c r="U74" s="7"/>
-    </row>
-    <row r="75" spans="1:21">
-      <c r="A75" s="8"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="7"/>
+      <c r="V74" s="7"/>
+    </row>
+    <row r="75" spans="2:22">
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
@@ -3565,11 +3153,11 @@
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
-    </row>
-    <row r="76" spans="1:21">
-      <c r="A76" s="8"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="7"/>
+      <c r="V75" s="7"/>
+    </row>
+    <row r="76" spans="2:22">
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
@@ -3588,11 +3176,11 @@
       <c r="S76" s="7"/>
       <c r="T76" s="7"/>
       <c r="U76" s="7"/>
-    </row>
-    <row r="77" spans="1:21">
-      <c r="A77" s="8"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="7"/>
+      <c r="V76" s="7"/>
+    </row>
+    <row r="77" spans="2:22">
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
@@ -3611,11 +3199,11 @@
       <c r="S77" s="7"/>
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
-    </row>
-    <row r="78" spans="1:21">
-      <c r="A78" s="8"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="7"/>
+      <c r="V77" s="7"/>
+    </row>
+    <row r="78" spans="2:22">
+      <c r="B78" s="8"/>
+      <c r="C78" s="9"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
@@ -3634,11 +3222,11 @@
       <c r="S78" s="7"/>
       <c r="T78" s="7"/>
       <c r="U78" s="7"/>
-    </row>
-    <row r="79" spans="1:21">
-      <c r="A79" s="8"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="7"/>
+      <c r="V78" s="7"/>
+    </row>
+    <row r="79" spans="2:22">
+      <c r="B79" s="8"/>
+      <c r="C79" s="9"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
@@ -3657,11 +3245,11 @@
       <c r="S79" s="7"/>
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
-    </row>
-    <row r="80" spans="1:21">
-      <c r="A80" s="8"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="7"/>
+      <c r="V79" s="7"/>
+    </row>
+    <row r="80" spans="2:22">
+      <c r="B80" s="8"/>
+      <c r="C80" s="9"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
@@ -3680,11 +3268,11 @@
       <c r="S80" s="7"/>
       <c r="T80" s="7"/>
       <c r="U80" s="7"/>
-    </row>
-    <row r="81" spans="1:22">
-      <c r="A81" s="8"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="7"/>
+      <c r="V80" s="7"/>
+    </row>
+    <row r="81" spans="2:23">
+      <c r="B81" s="8"/>
+      <c r="C81" s="9"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
@@ -3704,11 +3292,11 @@
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
-    </row>
-    <row r="82" spans="1:22">
-      <c r="A82" s="8"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="7"/>
+      <c r="W81" s="7"/>
+    </row>
+    <row r="82" spans="2:23">
+      <c r="B82" s="8"/>
+      <c r="C82" s="9"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -3728,11 +3316,11 @@
       <c r="T82" s="7"/>
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
-    </row>
-    <row r="83" spans="1:22">
-      <c r="A83" s="8"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="7"/>
+      <c r="W82" s="7"/>
+    </row>
+    <row r="83" spans="2:23">
+      <c r="B83" s="8"/>
+      <c r="C83" s="9"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
@@ -3752,11 +3340,11 @@
       <c r="T83" s="7"/>
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
-    </row>
-    <row r="84" spans="1:22">
-      <c r="A84" s="8"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="7"/>
+      <c r="W83" s="7"/>
+    </row>
+    <row r="84" spans="2:23">
+      <c r="B84" s="8"/>
+      <c r="C84" s="9"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
@@ -3776,11 +3364,11 @@
       <c r="T84" s="7"/>
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
-    </row>
-    <row r="85" spans="1:22">
-      <c r="A85" s="8"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="7"/>
+      <c r="W84" s="7"/>
+    </row>
+    <row r="85" spans="2:23">
+      <c r="B85" s="8"/>
+      <c r="C85" s="9"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
@@ -3800,11 +3388,11 @@
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
-    </row>
-    <row r="86" spans="1:22">
-      <c r="A86" s="8"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="7"/>
+      <c r="W85" s="7"/>
+    </row>
+    <row r="86" spans="2:23">
+      <c r="B86" s="8"/>
+      <c r="C86" s="9"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
@@ -3824,11 +3412,11 @@
       <c r="T86" s="7"/>
       <c r="U86" s="7"/>
       <c r="V86" s="7"/>
-    </row>
-    <row r="87" spans="1:22">
-      <c r="A87" s="8"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="7"/>
+      <c r="W86" s="7"/>
+    </row>
+    <row r="87" spans="2:23">
+      <c r="B87" s="8"/>
+      <c r="C87" s="9"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
@@ -3848,11 +3436,11 @@
       <c r="T87" s="7"/>
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
-    </row>
-    <row r="88" spans="1:22">
-      <c r="A88" s="8"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="7"/>
+      <c r="W87" s="7"/>
+    </row>
+    <row r="88" spans="2:23">
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
@@ -3872,11 +3460,11 @@
       <c r="T88" s="7"/>
       <c r="U88" s="7"/>
       <c r="V88" s="7"/>
-    </row>
-    <row r="89" spans="1:22">
-      <c r="A89" s="8"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="7"/>
+      <c r="W88" s="7"/>
+    </row>
+    <row r="89" spans="2:23">
+      <c r="B89" s="8"/>
+      <c r="C89" s="9"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
@@ -3896,11 +3484,11 @@
       <c r="T89" s="7"/>
       <c r="U89" s="7"/>
       <c r="V89" s="7"/>
-    </row>
-    <row r="90" spans="1:22">
-      <c r="A90" s="8"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="7"/>
+      <c r="W89" s="7"/>
+    </row>
+    <row r="90" spans="2:23">
+      <c r="B90" s="8"/>
+      <c r="C90" s="9"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -3920,11 +3508,11 @@
       <c r="T90" s="7"/>
       <c r="U90" s="7"/>
       <c r="V90" s="7"/>
-    </row>
-    <row r="91" spans="1:22">
-      <c r="A91" s="8"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="7"/>
+      <c r="W90" s="7"/>
+    </row>
+    <row r="91" spans="2:23">
+      <c r="B91" s="8"/>
+      <c r="C91" s="9"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
@@ -3944,11 +3532,11 @@
       <c r="T91" s="7"/>
       <c r="U91" s="7"/>
       <c r="V91" s="7"/>
-    </row>
-    <row r="92" spans="1:22">
-      <c r="A92" s="8"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="7"/>
+      <c r="W91" s="7"/>
+    </row>
+    <row r="92" spans="2:23">
+      <c r="B92" s="8"/>
+      <c r="C92" s="9"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
@@ -3968,11 +3556,11 @@
       <c r="T92" s="7"/>
       <c r="U92" s="7"/>
       <c r="V92" s="7"/>
-    </row>
-    <row r="93" spans="1:22">
-      <c r="A93" s="8"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="7"/>
+      <c r="W92" s="7"/>
+    </row>
+    <row r="93" spans="2:23">
+      <c r="B93" s="8"/>
+      <c r="C93" s="9"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
@@ -3992,11 +3580,11 @@
       <c r="T93" s="7"/>
       <c r="U93" s="7"/>
       <c r="V93" s="7"/>
-    </row>
-    <row r="94" spans="1:22">
-      <c r="A94" s="8"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="7"/>
+      <c r="W93" s="7"/>
+    </row>
+    <row r="94" spans="2:23">
+      <c r="B94" s="8"/>
+      <c r="C94" s="9"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
@@ -4016,11 +3604,11 @@
       <c r="T94" s="7"/>
       <c r="U94" s="7"/>
       <c r="V94" s="7"/>
-    </row>
-    <row r="95" spans="1:22">
-      <c r="A95" s="8"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="7"/>
+      <c r="W94" s="7"/>
+    </row>
+    <row r="95" spans="2:23">
+      <c r="B95" s="8"/>
+      <c r="C95" s="9"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
@@ -4040,11 +3628,11 @@
       <c r="T95" s="7"/>
       <c r="U95" s="7"/>
       <c r="V95" s="7"/>
-    </row>
-    <row r="96" spans="1:22">
-      <c r="A96" s="8"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="7"/>
+      <c r="W95" s="7"/>
+    </row>
+    <row r="96" spans="2:23">
+      <c r="B96" s="8"/>
+      <c r="C96" s="9"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
@@ -4064,11 +3652,11 @@
       <c r="T96" s="7"/>
       <c r="U96" s="7"/>
       <c r="V96" s="7"/>
-    </row>
-    <row r="97" spans="1:22">
-      <c r="A97" s="8"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="7"/>
+      <c r="W96" s="7"/>
+    </row>
+    <row r="97" spans="2:23">
+      <c r="B97" s="8"/>
+      <c r="C97" s="9"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
@@ -4088,11 +3676,11 @@
       <c r="T97" s="7"/>
       <c r="U97" s="7"/>
       <c r="V97" s="7"/>
-    </row>
-    <row r="98" spans="1:22">
-      <c r="A98" s="8"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="7"/>
+      <c r="W97" s="7"/>
+    </row>
+    <row r="98" spans="2:23">
+      <c r="B98" s="8"/>
+      <c r="C98" s="9"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
@@ -4112,11 +3700,11 @@
       <c r="T98" s="7"/>
       <c r="U98" s="7"/>
       <c r="V98" s="7"/>
-    </row>
-    <row r="99" spans="1:22">
-      <c r="A99" s="8"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="7"/>
+      <c r="W98" s="7"/>
+    </row>
+    <row r="99" spans="2:23">
+      <c r="B99" s="8"/>
+      <c r="C99" s="9"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
@@ -4136,11 +3724,11 @@
       <c r="T99" s="7"/>
       <c r="U99" s="7"/>
       <c r="V99" s="7"/>
-    </row>
-    <row r="100" spans="1:22">
-      <c r="A100" s="8"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="7"/>
+      <c r="W99" s="7"/>
+    </row>
+    <row r="100" spans="2:23">
+      <c r="B100" s="8"/>
+      <c r="C100" s="9"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
@@ -4160,11 +3748,11 @@
       <c r="T100" s="7"/>
       <c r="U100" s="7"/>
       <c r="V100" s="7"/>
-    </row>
-    <row r="101" spans="1:22">
-      <c r="A101" s="8"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="7"/>
+      <c r="W100" s="7"/>
+    </row>
+    <row r="101" spans="2:23">
+      <c r="B101" s="8"/>
+      <c r="C101" s="9"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
@@ -4184,11 +3772,11 @@
       <c r="T101" s="7"/>
       <c r="U101" s="7"/>
       <c r="V101" s="7"/>
-    </row>
-    <row r="102" spans="1:22">
-      <c r="A102" s="8"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="7"/>
+      <c r="W101" s="7"/>
+    </row>
+    <row r="102" spans="2:23">
+      <c r="B102" s="8"/>
+      <c r="C102" s="9"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
@@ -4208,11 +3796,11 @@
       <c r="T102" s="7"/>
       <c r="U102" s="7"/>
       <c r="V102" s="7"/>
-    </row>
-    <row r="103" spans="1:22">
-      <c r="A103" s="8"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="7"/>
+      <c r="W102" s="7"/>
+    </row>
+    <row r="103" spans="2:23">
+      <c r="B103" s="8"/>
+      <c r="C103" s="9"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
@@ -4232,11 +3820,11 @@
       <c r="T103" s="7"/>
       <c r="U103" s="7"/>
       <c r="V103" s="7"/>
-    </row>
-    <row r="104" spans="1:22">
-      <c r="A104" s="8"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="7"/>
+      <c r="W103" s="7"/>
+    </row>
+    <row r="104" spans="2:23">
+      <c r="B104" s="8"/>
+      <c r="C104" s="9"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
@@ -4256,9 +3844,9 @@
       <c r="T104" s="7"/>
       <c r="U104" s="7"/>
       <c r="V104" s="7"/>
-    </row>
-    <row r="105" spans="3:20">
-      <c r="C105" s="7"/>
+      <c r="W104" s="7"/>
+    </row>
+    <row r="105" spans="4:21">
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
@@ -4276,9 +3864,9 @@
       <c r="R105" s="7"/>
       <c r="S105" s="7"/>
       <c r="T105" s="7"/>
-    </row>
-    <row r="106" spans="3:20">
-      <c r="C106" s="7"/>
+      <c r="U105" s="7"/>
+    </row>
+    <row r="106" spans="4:21">
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
@@ -4296,9 +3884,9 @@
       <c r="R106" s="7"/>
       <c r="S106" s="7"/>
       <c r="T106" s="7"/>
-    </row>
-    <row r="107" spans="3:20">
-      <c r="C107" s="7"/>
+      <c r="U106" s="7"/>
+    </row>
+    <row r="107" spans="4:21">
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
@@ -4316,9 +3904,9 @@
       <c r="R107" s="7"/>
       <c r="S107" s="7"/>
       <c r="T107" s="7"/>
-    </row>
-    <row r="108" spans="3:20">
-      <c r="C108" s="7"/>
+      <c r="U107" s="7"/>
+    </row>
+    <row r="108" spans="4:21">
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
@@ -4336,9 +3924,9 @@
       <c r="R108" s="7"/>
       <c r="S108" s="7"/>
       <c r="T108" s="7"/>
-    </row>
-    <row r="109" spans="3:20">
-      <c r="C109" s="7"/>
+      <c r="U108" s="7"/>
+    </row>
+    <row r="109" spans="4:21">
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
@@ -4356,9 +3944,9 @@
       <c r="R109" s="7"/>
       <c r="S109" s="7"/>
       <c r="T109" s="7"/>
-    </row>
-    <row r="110" spans="3:20">
-      <c r="C110" s="7"/>
+      <c r="U109" s="7"/>
+    </row>
+    <row r="110" spans="4:21">
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
@@ -4376,9 +3964,9 @@
       <c r="R110" s="7"/>
       <c r="S110" s="7"/>
       <c r="T110" s="7"/>
-    </row>
-    <row r="111" spans="3:20">
-      <c r="C111" s="7"/>
+      <c r="U110" s="7"/>
+    </row>
+    <row r="111" spans="4:21">
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
@@ -4396,9 +3984,9 @@
       <c r="R111" s="7"/>
       <c r="S111" s="7"/>
       <c r="T111" s="7"/>
-    </row>
-    <row r="112" spans="3:20">
-      <c r="C112" s="7"/>
+      <c r="U111" s="7"/>
+    </row>
+    <row r="112" spans="4:21">
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
@@ -4416,9 +4004,9 @@
       <c r="R112" s="7"/>
       <c r="S112" s="7"/>
       <c r="T112" s="7"/>
-    </row>
-    <row r="113" spans="3:20">
-      <c r="C113" s="7"/>
+      <c r="U112" s="7"/>
+    </row>
+    <row r="113" spans="4:21">
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
@@ -4436,9 +4024,9 @@
       <c r="R113" s="7"/>
       <c r="S113" s="7"/>
       <c r="T113" s="7"/>
-    </row>
-    <row r="114" spans="3:20">
-      <c r="C114" s="7"/>
+      <c r="U113" s="7"/>
+    </row>
+    <row r="114" spans="4:21">
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -4456,9 +4044,9 @@
       <c r="R114" s="7"/>
       <c r="S114" s="7"/>
       <c r="T114" s="7"/>
-    </row>
-    <row r="115" spans="3:20">
-      <c r="C115" s="7"/>
+      <c r="U114" s="7"/>
+    </row>
+    <row r="115" spans="4:21">
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
@@ -4476,9 +4064,9 @@
       <c r="R115" s="7"/>
       <c r="S115" s="7"/>
       <c r="T115" s="7"/>
-    </row>
-    <row r="116" spans="3:20">
-      <c r="C116" s="7"/>
+      <c r="U115" s="7"/>
+    </row>
+    <row r="116" spans="4:21">
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
@@ -4496,9 +4084,9 @@
       <c r="R116" s="7"/>
       <c r="S116" s="7"/>
       <c r="T116" s="7"/>
-    </row>
-    <row r="117" spans="3:20">
-      <c r="C117" s="7"/>
+      <c r="U116" s="7"/>
+    </row>
+    <row r="117" spans="4:21">
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
@@ -4516,9 +4104,9 @@
       <c r="R117" s="7"/>
       <c r="S117" s="7"/>
       <c r="T117" s="7"/>
-    </row>
-    <row r="118" spans="3:20">
-      <c r="C118" s="7"/>
+      <c r="U117" s="7"/>
+    </row>
+    <row r="118" spans="4:21">
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
@@ -4536,9 +4124,9 @@
       <c r="R118" s="7"/>
       <c r="S118" s="7"/>
       <c r="T118" s="7"/>
-    </row>
-    <row r="119" spans="3:20">
-      <c r="C119" s="7"/>
+      <c r="U118" s="7"/>
+    </row>
+    <row r="119" spans="4:21">
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
@@ -4556,9 +4144,9 @@
       <c r="R119" s="7"/>
       <c r="S119" s="7"/>
       <c r="T119" s="7"/>
-    </row>
-    <row r="120" spans="3:20">
-      <c r="C120" s="7"/>
+      <c r="U119" s="7"/>
+    </row>
+    <row r="120" spans="4:21">
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
@@ -4576,9 +4164,9 @@
       <c r="R120" s="7"/>
       <c r="S120" s="7"/>
       <c r="T120" s="7"/>
-    </row>
-    <row r="121" spans="3:20">
-      <c r="C121" s="7"/>
+      <c r="U120" s="7"/>
+    </row>
+    <row r="121" spans="4:21">
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
@@ -4596,9 +4184,9 @@
       <c r="R121" s="7"/>
       <c r="S121" s="7"/>
       <c r="T121" s="7"/>
-    </row>
-    <row r="122" spans="3:20">
-      <c r="C122" s="7"/>
+      <c r="U121" s="7"/>
+    </row>
+    <row r="122" spans="4:21">
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
@@ -4616,9 +4204,9 @@
       <c r="R122" s="7"/>
       <c r="S122" s="7"/>
       <c r="T122" s="7"/>
-    </row>
-    <row r="123" spans="3:20">
-      <c r="C123" s="7"/>
+      <c r="U122" s="7"/>
+    </row>
+    <row r="123" spans="4:21">
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
@@ -4636,9 +4224,9 @@
       <c r="R123" s="7"/>
       <c r="S123" s="7"/>
       <c r="T123" s="7"/>
-    </row>
-    <row r="124" spans="3:20">
-      <c r="C124" s="7"/>
+      <c r="U123" s="7"/>
+    </row>
+    <row r="124" spans="4:21">
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
@@ -4656,9 +4244,9 @@
       <c r="R124" s="7"/>
       <c r="S124" s="7"/>
       <c r="T124" s="7"/>
-    </row>
-    <row r="125" spans="3:20">
-      <c r="C125" s="7"/>
+      <c r="U124" s="7"/>
+    </row>
+    <row r="125" spans="4:21">
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
@@ -4676,9 +4264,9 @@
       <c r="R125" s="7"/>
       <c r="S125" s="7"/>
       <c r="T125" s="7"/>
-    </row>
-    <row r="126" spans="3:20">
-      <c r="C126" s="7"/>
+      <c r="U125" s="7"/>
+    </row>
+    <row r="126" spans="4:21">
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
@@ -4696,9 +4284,9 @@
       <c r="R126" s="7"/>
       <c r="S126" s="7"/>
       <c r="T126" s="7"/>
-    </row>
-    <row r="127" spans="3:20">
-      <c r="C127" s="7"/>
+      <c r="U126" s="7"/>
+    </row>
+    <row r="127" spans="4:21">
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
@@ -4716,9 +4304,9 @@
       <c r="R127" s="7"/>
       <c r="S127" s="7"/>
       <c r="T127" s="7"/>
-    </row>
-    <row r="128" spans="3:20">
-      <c r="C128" s="7"/>
+      <c r="U127" s="7"/>
+    </row>
+    <row r="128" spans="4:21">
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
@@ -4736,9 +4324,9 @@
       <c r="R128" s="7"/>
       <c r="S128" s="7"/>
       <c r="T128" s="7"/>
-    </row>
-    <row r="129" spans="3:20">
-      <c r="C129" s="7"/>
+      <c r="U128" s="7"/>
+    </row>
+    <row r="129" spans="4:21">
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
@@ -4756,9 +4344,9 @@
       <c r="R129" s="7"/>
       <c r="S129" s="7"/>
       <c r="T129" s="7"/>
-    </row>
-    <row r="130" spans="3:20">
-      <c r="C130" s="7"/>
+      <c r="U129" s="7"/>
+    </row>
+    <row r="130" spans="4:21">
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
@@ -4776,9 +4364,9 @@
       <c r="R130" s="7"/>
       <c r="S130" s="7"/>
       <c r="T130" s="7"/>
-    </row>
-    <row r="131" spans="3:20">
-      <c r="C131" s="7"/>
+      <c r="U130" s="7"/>
+    </row>
+    <row r="131" spans="4:21">
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
@@ -4796,9 +4384,9 @@
       <c r="R131" s="7"/>
       <c r="S131" s="7"/>
       <c r="T131" s="7"/>
-    </row>
-    <row r="132" spans="3:20">
-      <c r="C132" s="7"/>
+      <c r="U131" s="7"/>
+    </row>
+    <row r="132" spans="4:21">
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
@@ -4816,9 +4404,9 @@
       <c r="R132" s="7"/>
       <c r="S132" s="7"/>
       <c r="T132" s="7"/>
-    </row>
-    <row r="133" spans="3:20">
-      <c r="C133" s="7"/>
+      <c r="U132" s="7"/>
+    </row>
+    <row r="133" spans="4:21">
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
@@ -4836,9 +4424,9 @@
       <c r="R133" s="7"/>
       <c r="S133" s="7"/>
       <c r="T133" s="7"/>
-    </row>
-    <row r="134" spans="3:20">
-      <c r="C134" s="7"/>
+      <c r="U133" s="7"/>
+    </row>
+    <row r="134" spans="4:21">
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
@@ -4856,9 +4444,9 @@
       <c r="R134" s="7"/>
       <c r="S134" s="7"/>
       <c r="T134" s="7"/>
-    </row>
-    <row r="135" spans="3:20">
-      <c r="C135" s="7"/>
+      <c r="U134" s="7"/>
+    </row>
+    <row r="135" spans="4:21">
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
@@ -4876,9 +4464,9 @@
       <c r="R135" s="7"/>
       <c r="S135" s="7"/>
       <c r="T135" s="7"/>
-    </row>
-    <row r="136" spans="3:20">
-      <c r="C136" s="7"/>
+      <c r="U135" s="7"/>
+    </row>
+    <row r="136" spans="4:21">
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
@@ -4896,9 +4484,9 @@
       <c r="R136" s="7"/>
       <c r="S136" s="7"/>
       <c r="T136" s="7"/>
-    </row>
-    <row r="137" spans="3:20">
-      <c r="C137" s="7"/>
+      <c r="U136" s="7"/>
+    </row>
+    <row r="137" spans="4:21">
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
@@ -4916,9 +4504,9 @@
       <c r="R137" s="7"/>
       <c r="S137" s="7"/>
       <c r="T137" s="7"/>
-    </row>
-    <row r="138" spans="3:20">
-      <c r="C138" s="7"/>
+      <c r="U137" s="7"/>
+    </row>
+    <row r="138" spans="4:21">
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
@@ -4936,9 +4524,9 @@
       <c r="R138" s="7"/>
       <c r="S138" s="7"/>
       <c r="T138" s="7"/>
-    </row>
-    <row r="139" spans="3:20">
-      <c r="C139" s="7"/>
+      <c r="U138" s="7"/>
+    </row>
+    <row r="139" spans="4:21">
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
@@ -4956,9 +4544,9 @@
       <c r="R139" s="7"/>
       <c r="S139" s="7"/>
       <c r="T139" s="7"/>
-    </row>
-    <row r="140" spans="3:20">
-      <c r="C140" s="7"/>
+      <c r="U139" s="7"/>
+    </row>
+    <row r="140" spans="4:21">
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
@@ -4976,9 +4564,9 @@
       <c r="R140" s="7"/>
       <c r="S140" s="7"/>
       <c r="T140" s="7"/>
-    </row>
-    <row r="141" spans="3:20">
-      <c r="C141" s="7"/>
+      <c r="U140" s="7"/>
+    </row>
+    <row r="141" spans="4:21">
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
@@ -4996,9 +4584,9 @@
       <c r="R141" s="7"/>
       <c r="S141" s="7"/>
       <c r="T141" s="7"/>
-    </row>
-    <row r="142" spans="3:20">
-      <c r="C142" s="7"/>
+      <c r="U141" s="7"/>
+    </row>
+    <row r="142" spans="4:21">
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
@@ -5016,9 +4604,9 @@
       <c r="R142" s="7"/>
       <c r="S142" s="7"/>
       <c r="T142" s="7"/>
-    </row>
-    <row r="143" spans="3:20">
-      <c r="C143" s="7"/>
+      <c r="U142" s="7"/>
+    </row>
+    <row r="143" spans="4:21">
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
@@ -5036,9 +4624,9 @@
       <c r="R143" s="7"/>
       <c r="S143" s="7"/>
       <c r="T143" s="7"/>
-    </row>
-    <row r="144" spans="3:20">
-      <c r="C144" s="7"/>
+      <c r="U143" s="7"/>
+    </row>
+    <row r="144" spans="4:21">
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
@@ -5056,9 +4644,9 @@
       <c r="R144" s="7"/>
       <c r="S144" s="7"/>
       <c r="T144" s="7"/>
-    </row>
-    <row r="145" spans="3:20">
-      <c r="C145" s="7"/>
+      <c r="U144" s="7"/>
+    </row>
+    <row r="145" spans="4:21">
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
@@ -5076,9 +4664,9 @@
       <c r="R145" s="7"/>
       <c r="S145" s="7"/>
       <c r="T145" s="7"/>
-    </row>
-    <row r="146" spans="3:20">
-      <c r="C146" s="7"/>
+      <c r="U145" s="7"/>
+    </row>
+    <row r="146" spans="4:21">
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
       <c r="F146" s="7"/>
@@ -5096,9 +4684,9 @@
       <c r="R146" s="7"/>
       <c r="S146" s="7"/>
       <c r="T146" s="7"/>
-    </row>
-    <row r="147" spans="3:20">
-      <c r="C147" s="7"/>
+      <c r="U146" s="7"/>
+    </row>
+    <row r="147" spans="4:21">
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
@@ -5116,9 +4704,9 @@
       <c r="R147" s="7"/>
       <c r="S147" s="7"/>
       <c r="T147" s="7"/>
-    </row>
-    <row r="148" spans="3:20">
-      <c r="C148" s="7"/>
+      <c r="U147" s="7"/>
+    </row>
+    <row r="148" spans="4:21">
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
@@ -5136,9 +4724,9 @@
       <c r="R148" s="7"/>
       <c r="S148" s="7"/>
       <c r="T148" s="7"/>
-    </row>
-    <row r="149" spans="3:20">
-      <c r="C149" s="7"/>
+      <c r="U148" s="7"/>
+    </row>
+    <row r="149" spans="4:21">
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
@@ -5156,9 +4744,9 @@
       <c r="R149" s="7"/>
       <c r="S149" s="7"/>
       <c r="T149" s="7"/>
-    </row>
-    <row r="150" spans="3:20">
-      <c r="C150" s="7"/>
+      <c r="U149" s="7"/>
+    </row>
+    <row r="150" spans="4:21">
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
@@ -5176,9 +4764,9 @@
       <c r="R150" s="7"/>
       <c r="S150" s="7"/>
       <c r="T150" s="7"/>
-    </row>
-    <row r="151" spans="3:20">
-      <c r="C151" s="7"/>
+      <c r="U150" s="7"/>
+    </row>
+    <row r="151" spans="4:21">
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
@@ -5196,9 +4784,9 @@
       <c r="R151" s="7"/>
       <c r="S151" s="7"/>
       <c r="T151" s="7"/>
-    </row>
-    <row r="152" spans="3:20">
-      <c r="C152" s="7"/>
+      <c r="U151" s="7"/>
+    </row>
+    <row r="152" spans="4:21">
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
@@ -5216,9 +4804,9 @@
       <c r="R152" s="7"/>
       <c r="S152" s="7"/>
       <c r="T152" s="7"/>
-    </row>
-    <row r="153" spans="3:20">
-      <c r="C153" s="7"/>
+      <c r="U152" s="7"/>
+    </row>
+    <row r="153" spans="4:21">
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
@@ -5236,9 +4824,9 @@
       <c r="R153" s="7"/>
       <c r="S153" s="7"/>
       <c r="T153" s="7"/>
-    </row>
-    <row r="154" spans="3:20">
-      <c r="C154" s="7"/>
+      <c r="U153" s="7"/>
+    </row>
+    <row r="154" spans="4:21">
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
@@ -5256,9 +4844,9 @@
       <c r="R154" s="7"/>
       <c r="S154" s="7"/>
       <c r="T154" s="7"/>
-    </row>
-    <row r="155" spans="3:20">
-      <c r="C155" s="7"/>
+      <c r="U154" s="7"/>
+    </row>
+    <row r="155" spans="4:21">
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
@@ -5276,9 +4864,9 @@
       <c r="R155" s="7"/>
       <c r="S155" s="7"/>
       <c r="T155" s="7"/>
-    </row>
-    <row r="156" spans="3:20">
-      <c r="C156" s="7"/>
+      <c r="U155" s="7"/>
+    </row>
+    <row r="156" spans="4:21">
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
@@ -5296,9 +4884,9 @@
       <c r="R156" s="7"/>
       <c r="S156" s="7"/>
       <c r="T156" s="7"/>
-    </row>
-    <row r="157" spans="3:20">
-      <c r="C157" s="7"/>
+      <c r="U156" s="7"/>
+    </row>
+    <row r="157" spans="4:21">
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
@@ -5316,9 +4904,9 @@
       <c r="R157" s="7"/>
       <c r="S157" s="7"/>
       <c r="T157" s="7"/>
-    </row>
-    <row r="158" spans="3:20">
-      <c r="C158" s="7"/>
+      <c r="U157" s="7"/>
+    </row>
+    <row r="158" spans="4:21">
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
@@ -5336,9 +4924,9 @@
       <c r="R158" s="7"/>
       <c r="S158" s="7"/>
       <c r="T158" s="7"/>
-    </row>
-    <row r="159" spans="3:20">
-      <c r="C159" s="7"/>
+      <c r="U158" s="7"/>
+    </row>
+    <row r="159" spans="4:21">
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
@@ -5356,9 +4944,9 @@
       <c r="R159" s="7"/>
       <c r="S159" s="7"/>
       <c r="T159" s="7"/>
-    </row>
-    <row r="160" spans="3:20">
-      <c r="C160" s="7"/>
+      <c r="U159" s="7"/>
+    </row>
+    <row r="160" spans="4:21">
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
@@ -5376,9 +4964,9 @@
       <c r="R160" s="7"/>
       <c r="S160" s="7"/>
       <c r="T160" s="7"/>
-    </row>
-    <row r="161" spans="3:20">
-      <c r="C161" s="7"/>
+      <c r="U160" s="7"/>
+    </row>
+    <row r="161" spans="4:21">
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
@@ -5396,9 +4984,9 @@
       <c r="R161" s="7"/>
       <c r="S161" s="7"/>
       <c r="T161" s="7"/>
-    </row>
-    <row r="162" spans="3:20">
-      <c r="C162" s="7"/>
+      <c r="U161" s="7"/>
+    </row>
+    <row r="162" spans="4:21">
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
@@ -5416,9 +5004,9 @@
       <c r="R162" s="7"/>
       <c r="S162" s="7"/>
       <c r="T162" s="7"/>
-    </row>
-    <row r="163" spans="3:20">
-      <c r="C163" s="7"/>
+      <c r="U162" s="7"/>
+    </row>
+    <row r="163" spans="4:21">
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
@@ -5436,9 +5024,9 @@
       <c r="R163" s="7"/>
       <c r="S163" s="7"/>
       <c r="T163" s="7"/>
-    </row>
-    <row r="164" spans="3:20">
-      <c r="C164" s="7"/>
+      <c r="U163" s="7"/>
+    </row>
+    <row r="164" spans="4:21">
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
@@ -5456,9 +5044,9 @@
       <c r="R164" s="7"/>
       <c r="S164" s="7"/>
       <c r="T164" s="7"/>
-    </row>
-    <row r="165" spans="3:20">
-      <c r="C165" s="7"/>
+      <c r="U164" s="7"/>
+    </row>
+    <row r="165" spans="4:21">
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
@@ -5476,9 +5064,9 @@
       <c r="R165" s="7"/>
       <c r="S165" s="7"/>
       <c r="T165" s="7"/>
-    </row>
-    <row r="166" spans="3:20">
-      <c r="C166" s="7"/>
+      <c r="U165" s="7"/>
+    </row>
+    <row r="166" spans="4:21">
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
@@ -5496,9 +5084,9 @@
       <c r="R166" s="7"/>
       <c r="S166" s="7"/>
       <c r="T166" s="7"/>
-    </row>
-    <row r="167" spans="3:20">
-      <c r="C167" s="7"/>
+      <c r="U166" s="7"/>
+    </row>
+    <row r="167" spans="4:21">
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
@@ -5516,9 +5104,9 @@
       <c r="R167" s="7"/>
       <c r="S167" s="7"/>
       <c r="T167" s="7"/>
-    </row>
-    <row r="168" spans="3:20">
-      <c r="C168" s="7"/>
+      <c r="U167" s="7"/>
+    </row>
+    <row r="168" spans="4:21">
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
@@ -5536,9 +5124,9 @@
       <c r="R168" s="7"/>
       <c r="S168" s="7"/>
       <c r="T168" s="7"/>
-    </row>
-    <row r="169" spans="3:20">
-      <c r="C169" s="7"/>
+      <c r="U168" s="7"/>
+    </row>
+    <row r="169" spans="4:21">
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
@@ -5556,9 +5144,9 @@
       <c r="R169" s="7"/>
       <c r="S169" s="7"/>
       <c r="T169" s="7"/>
-    </row>
-    <row r="170" spans="3:20">
-      <c r="C170" s="7"/>
+      <c r="U169" s="7"/>
+    </row>
+    <row r="170" spans="4:21">
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
@@ -5576,9 +5164,9 @@
       <c r="R170" s="7"/>
       <c r="S170" s="7"/>
       <c r="T170" s="7"/>
-    </row>
-    <row r="171" spans="3:20">
-      <c r="C171" s="7"/>
+      <c r="U170" s="7"/>
+    </row>
+    <row r="171" spans="4:21">
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
@@ -5596,9 +5184,9 @@
       <c r="R171" s="7"/>
       <c r="S171" s="7"/>
       <c r="T171" s="7"/>
-    </row>
-    <row r="172" spans="3:20">
-      <c r="C172" s="7"/>
+      <c r="U171" s="7"/>
+    </row>
+    <row r="172" spans="4:21">
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
@@ -5616,9 +5204,9 @@
       <c r="R172" s="7"/>
       <c r="S172" s="7"/>
       <c r="T172" s="7"/>
-    </row>
-    <row r="173" spans="3:20">
-      <c r="C173" s="7"/>
+      <c r="U172" s="7"/>
+    </row>
+    <row r="173" spans="4:21">
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
@@ -5636,9 +5224,9 @@
       <c r="R173" s="7"/>
       <c r="S173" s="7"/>
       <c r="T173" s="7"/>
-    </row>
-    <row r="174" spans="3:20">
-      <c r="C174" s="7"/>
+      <c r="U173" s="7"/>
+    </row>
+    <row r="174" spans="4:21">
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
@@ -5656,9 +5244,9 @@
       <c r="R174" s="7"/>
       <c r="S174" s="7"/>
       <c r="T174" s="7"/>
-    </row>
-    <row r="175" spans="3:20">
-      <c r="C175" s="7"/>
+      <c r="U174" s="7"/>
+    </row>
+    <row r="175" spans="4:21">
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
@@ -5676,9 +5264,9 @@
       <c r="R175" s="7"/>
       <c r="S175" s="7"/>
       <c r="T175" s="7"/>
-    </row>
-    <row r="176" spans="3:20">
-      <c r="C176" s="7"/>
+      <c r="U175" s="7"/>
+    </row>
+    <row r="176" spans="4:21">
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
@@ -5696,9 +5284,9 @@
       <c r="R176" s="7"/>
       <c r="S176" s="7"/>
       <c r="T176" s="7"/>
-    </row>
-    <row r="177" spans="3:20">
-      <c r="C177" s="7"/>
+      <c r="U176" s="7"/>
+    </row>
+    <row r="177" spans="4:21">
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
       <c r="F177" s="7"/>
@@ -5716,9 +5304,9 @@
       <c r="R177" s="7"/>
       <c r="S177" s="7"/>
       <c r="T177" s="7"/>
-    </row>
-    <row r="178" spans="3:20">
-      <c r="C178" s="7"/>
+      <c r="U177" s="7"/>
+    </row>
+    <row r="178" spans="4:21">
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
@@ -5736,9 +5324,9 @@
       <c r="R178" s="7"/>
       <c r="S178" s="7"/>
       <c r="T178" s="7"/>
-    </row>
-    <row r="179" spans="3:20">
-      <c r="C179" s="7"/>
+      <c r="U178" s="7"/>
+    </row>
+    <row r="179" spans="4:21">
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
@@ -5756,9 +5344,9 @@
       <c r="R179" s="7"/>
       <c r="S179" s="7"/>
       <c r="T179" s="7"/>
-    </row>
-    <row r="180" spans="3:20">
-      <c r="C180" s="7"/>
+      <c r="U179" s="7"/>
+    </row>
+    <row r="180" spans="4:21">
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
@@ -5776,9 +5364,9 @@
       <c r="R180" s="7"/>
       <c r="S180" s="7"/>
       <c r="T180" s="7"/>
-    </row>
-    <row r="181" spans="3:20">
-      <c r="C181" s="7"/>
+      <c r="U180" s="7"/>
+    </row>
+    <row r="181" spans="4:21">
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
       <c r="F181" s="7"/>
@@ -5796,9 +5384,9 @@
       <c r="R181" s="7"/>
       <c r="S181" s="7"/>
       <c r="T181" s="7"/>
-    </row>
-    <row r="182" spans="3:20">
-      <c r="C182" s="7"/>
+      <c r="U181" s="7"/>
+    </row>
+    <row r="182" spans="4:21">
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
       <c r="F182" s="7"/>
@@ -5816,9 +5404,9 @@
       <c r="R182" s="7"/>
       <c r="S182" s="7"/>
       <c r="T182" s="7"/>
-    </row>
-    <row r="183" spans="3:20">
-      <c r="C183" s="7"/>
+      <c r="U182" s="7"/>
+    </row>
+    <row r="183" spans="4:21">
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
@@ -5836,9 +5424,9 @@
       <c r="R183" s="7"/>
       <c r="S183" s="7"/>
       <c r="T183" s="7"/>
-    </row>
-    <row r="184" spans="3:20">
-      <c r="C184" s="7"/>
+      <c r="U183" s="7"/>
+    </row>
+    <row r="184" spans="4:21">
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
@@ -5856,9 +5444,9 @@
       <c r="R184" s="7"/>
       <c r="S184" s="7"/>
       <c r="T184" s="7"/>
-    </row>
-    <row r="185" spans="3:20">
-      <c r="C185" s="7"/>
+      <c r="U184" s="7"/>
+    </row>
+    <row r="185" spans="4:21">
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
@@ -5876,9 +5464,9 @@
       <c r="R185" s="7"/>
       <c r="S185" s="7"/>
       <c r="T185" s="7"/>
-    </row>
-    <row r="186" spans="3:20">
-      <c r="C186" s="7"/>
+      <c r="U185" s="7"/>
+    </row>
+    <row r="186" spans="4:21">
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
@@ -5896,9 +5484,9 @@
       <c r="R186" s="7"/>
       <c r="S186" s="7"/>
       <c r="T186" s="7"/>
-    </row>
-    <row r="187" spans="3:20">
-      <c r="C187" s="7"/>
+      <c r="U186" s="7"/>
+    </row>
+    <row r="187" spans="4:21">
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
@@ -5916,9 +5504,9 @@
       <c r="R187" s="7"/>
       <c r="S187" s="7"/>
       <c r="T187" s="7"/>
-    </row>
-    <row r="188" spans="3:20">
-      <c r="C188" s="7"/>
+      <c r="U187" s="7"/>
+    </row>
+    <row r="188" spans="4:21">
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
@@ -5936,9 +5524,9 @@
       <c r="R188" s="7"/>
       <c r="S188" s="7"/>
       <c r="T188" s="7"/>
-    </row>
-    <row r="189" spans="3:20">
-      <c r="C189" s="7"/>
+      <c r="U188" s="7"/>
+    </row>
+    <row r="189" spans="4:21">
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
@@ -5956,9 +5544,9 @@
       <c r="R189" s="7"/>
       <c r="S189" s="7"/>
       <c r="T189" s="7"/>
-    </row>
-    <row r="190" spans="3:20">
-      <c r="C190" s="7"/>
+      <c r="U189" s="7"/>
+    </row>
+    <row r="190" spans="4:21">
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
@@ -5976,9 +5564,9 @@
       <c r="R190" s="7"/>
       <c r="S190" s="7"/>
       <c r="T190" s="7"/>
-    </row>
-    <row r="191" spans="3:20">
-      <c r="C191" s="7"/>
+      <c r="U190" s="7"/>
+    </row>
+    <row r="191" spans="4:21">
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
@@ -5996,9 +5584,9 @@
       <c r="R191" s="7"/>
       <c r="S191" s="7"/>
       <c r="T191" s="7"/>
-    </row>
-    <row r="192" spans="3:20">
-      <c r="C192" s="7"/>
+      <c r="U191" s="7"/>
+    </row>
+    <row r="192" spans="4:21">
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
@@ -6016,9 +5604,9 @@
       <c r="R192" s="7"/>
       <c r="S192" s="7"/>
       <c r="T192" s="7"/>
-    </row>
-    <row r="193" spans="3:20">
-      <c r="C193" s="7"/>
+      <c r="U192" s="7"/>
+    </row>
+    <row r="193" spans="4:21">
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
@@ -6036,9 +5624,9 @@
       <c r="R193" s="7"/>
       <c r="S193" s="7"/>
       <c r="T193" s="7"/>
-    </row>
-    <row r="194" spans="3:20">
-      <c r="C194" s="7"/>
+      <c r="U193" s="7"/>
+    </row>
+    <row r="194" spans="4:21">
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
@@ -6056,9 +5644,9 @@
       <c r="R194" s="7"/>
       <c r="S194" s="7"/>
       <c r="T194" s="7"/>
-    </row>
-    <row r="195" spans="3:20">
-      <c r="C195" s="7"/>
+      <c r="U194" s="7"/>
+    </row>
+    <row r="195" spans="4:21">
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
       <c r="F195" s="7"/>
@@ -6076,9 +5664,9 @@
       <c r="R195" s="7"/>
       <c r="S195" s="7"/>
       <c r="T195" s="7"/>
-    </row>
-    <row r="196" spans="3:20">
-      <c r="C196" s="7"/>
+      <c r="U195" s="7"/>
+    </row>
+    <row r="196" spans="4:21">
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
       <c r="F196" s="7"/>
@@ -6096,9 +5684,9 @@
       <c r="R196" s="7"/>
       <c r="S196" s="7"/>
       <c r="T196" s="7"/>
-    </row>
-    <row r="197" spans="3:20">
-      <c r="C197" s="7"/>
+      <c r="U196" s="7"/>
+    </row>
+    <row r="197" spans="4:21">
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
@@ -6116,9 +5704,9 @@
       <c r="R197" s="7"/>
       <c r="S197" s="7"/>
       <c r="T197" s="7"/>
-    </row>
-    <row r="198" spans="3:20">
-      <c r="C198" s="7"/>
+      <c r="U197" s="7"/>
+    </row>
+    <row r="198" spans="4:21">
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
@@ -6136,9 +5724,9 @@
       <c r="R198" s="7"/>
       <c r="S198" s="7"/>
       <c r="T198" s="7"/>
-    </row>
-    <row r="199" spans="3:20">
-      <c r="C199" s="7"/>
+      <c r="U198" s="7"/>
+    </row>
+    <row r="199" spans="4:21">
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
       <c r="F199" s="7"/>
@@ -6156,9 +5744,9 @@
       <c r="R199" s="7"/>
       <c r="S199" s="7"/>
       <c r="T199" s="7"/>
-    </row>
-    <row r="200" spans="3:20">
-      <c r="C200" s="7"/>
+      <c r="U199" s="7"/>
+    </row>
+    <row r="200" spans="4:21">
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
@@ -6176,9 +5764,9 @@
       <c r="R200" s="7"/>
       <c r="S200" s="7"/>
       <c r="T200" s="7"/>
-    </row>
-    <row r="201" spans="3:20">
-      <c r="C201" s="7"/>
+      <c r="U200" s="7"/>
+    </row>
+    <row r="201" spans="4:21">
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
       <c r="F201" s="7"/>
@@ -6196,9 +5784,9 @@
       <c r="R201" s="7"/>
       <c r="S201" s="7"/>
       <c r="T201" s="7"/>
-    </row>
-    <row r="202" spans="3:20">
-      <c r="C202" s="7"/>
+      <c r="U201" s="7"/>
+    </row>
+    <row r="202" spans="4:21">
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
       <c r="F202" s="7"/>
@@ -6216,9 +5804,9 @@
       <c r="R202" s="7"/>
       <c r="S202" s="7"/>
       <c r="T202" s="7"/>
-    </row>
-    <row r="203" spans="3:20">
-      <c r="C203" s="7"/>
+      <c r="U202" s="7"/>
+    </row>
+    <row r="203" spans="4:21">
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
       <c r="F203" s="7"/>
@@ -6236,9 +5824,9 @@
       <c r="R203" s="7"/>
       <c r="S203" s="7"/>
       <c r="T203" s="7"/>
-    </row>
-    <row r="204" spans="3:20">
-      <c r="C204" s="7"/>
+      <c r="U203" s="7"/>
+    </row>
+    <row r="204" spans="4:21">
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
       <c r="F204" s="7"/>
@@ -6256,9 +5844,9 @@
       <c r="R204" s="7"/>
       <c r="S204" s="7"/>
       <c r="T204" s="7"/>
-    </row>
-    <row r="205" spans="3:20">
-      <c r="C205" s="7"/>
+      <c r="U204" s="7"/>
+    </row>
+    <row r="205" spans="4:21">
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
       <c r="F205" s="7"/>
@@ -6276,9 +5864,9 @@
       <c r="R205" s="7"/>
       <c r="S205" s="7"/>
       <c r="T205" s="7"/>
-    </row>
-    <row r="206" spans="3:20">
-      <c r="C206" s="7"/>
+      <c r="U205" s="7"/>
+    </row>
+    <row r="206" spans="4:21">
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
       <c r="F206" s="7"/>
@@ -6296,9 +5884,9 @@
       <c r="R206" s="7"/>
       <c r="S206" s="7"/>
       <c r="T206" s="7"/>
-    </row>
-    <row r="207" spans="3:20">
-      <c r="C207" s="7"/>
+      <c r="U206" s="7"/>
+    </row>
+    <row r="207" spans="4:21">
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
       <c r="F207" s="7"/>
@@ -6316,9 +5904,9 @@
       <c r="R207" s="7"/>
       <c r="S207" s="7"/>
       <c r="T207" s="7"/>
-    </row>
-    <row r="208" spans="3:20">
-      <c r="C208" s="7"/>
+      <c r="U207" s="7"/>
+    </row>
+    <row r="208" spans="4:21">
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
       <c r="F208" s="7"/>
@@ -6336,9 +5924,9 @@
       <c r="R208" s="7"/>
       <c r="S208" s="7"/>
       <c r="T208" s="7"/>
-    </row>
-    <row r="209" spans="3:20">
-      <c r="C209" s="7"/>
+      <c r="U208" s="7"/>
+    </row>
+    <row r="209" spans="4:21">
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
       <c r="F209" s="7"/>
@@ -6356,9 +5944,9 @@
       <c r="R209" s="7"/>
       <c r="S209" s="7"/>
       <c r="T209" s="7"/>
-    </row>
-    <row r="210" spans="3:20">
-      <c r="C210" s="7"/>
+      <c r="U209" s="7"/>
+    </row>
+    <row r="210" spans="4:21">
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
       <c r="F210" s="7"/>
@@ -6376,9 +5964,9 @@
       <c r="R210" s="7"/>
       <c r="S210" s="7"/>
       <c r="T210" s="7"/>
-    </row>
-    <row r="211" spans="3:20">
-      <c r="C211" s="7"/>
+      <c r="U210" s="7"/>
+    </row>
+    <row r="211" spans="4:21">
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
       <c r="F211" s="7"/>
@@ -6396,9 +5984,9 @@
       <c r="R211" s="7"/>
       <c r="S211" s="7"/>
       <c r="T211" s="7"/>
-    </row>
-    <row r="212" spans="3:20">
-      <c r="C212" s="7"/>
+      <c r="U211" s="7"/>
+    </row>
+    <row r="212" spans="4:21">
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
       <c r="F212" s="7"/>
@@ -6416,9 +6004,9 @@
       <c r="R212" s="7"/>
       <c r="S212" s="7"/>
       <c r="T212" s="7"/>
-    </row>
-    <row r="213" spans="3:20">
-      <c r="C213" s="7"/>
+      <c r="U212" s="7"/>
+    </row>
+    <row r="213" spans="4:21">
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
       <c r="F213" s="7"/>
@@ -6436,9 +6024,9 @@
       <c r="R213" s="7"/>
       <c r="S213" s="7"/>
       <c r="T213" s="7"/>
-    </row>
-    <row r="214" spans="3:20">
-      <c r="C214" s="7"/>
+      <c r="U213" s="7"/>
+    </row>
+    <row r="214" spans="4:21">
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
       <c r="F214" s="7"/>
@@ -6456,9 +6044,9 @@
       <c r="R214" s="7"/>
       <c r="S214" s="7"/>
       <c r="T214" s="7"/>
-    </row>
-    <row r="215" spans="3:20">
-      <c r="C215" s="7"/>
+      <c r="U214" s="7"/>
+    </row>
+    <row r="215" spans="4:21">
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
       <c r="F215" s="7"/>
@@ -6476,9 +6064,9 @@
       <c r="R215" s="7"/>
       <c r="S215" s="7"/>
       <c r="T215" s="7"/>
-    </row>
-    <row r="216" spans="3:20">
-      <c r="C216" s="7"/>
+      <c r="U215" s="7"/>
+    </row>
+    <row r="216" spans="4:21">
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
       <c r="F216" s="7"/>
@@ -6496,9 +6084,9 @@
       <c r="R216" s="7"/>
       <c r="S216" s="7"/>
       <c r="T216" s="7"/>
-    </row>
-    <row r="217" spans="3:20">
-      <c r="C217" s="7"/>
+      <c r="U216" s="7"/>
+    </row>
+    <row r="217" spans="4:21">
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
       <c r="F217" s="7"/>
@@ -6516,9 +6104,9 @@
       <c r="R217" s="7"/>
       <c r="S217" s="7"/>
       <c r="T217" s="7"/>
-    </row>
-    <row r="218" spans="3:20">
-      <c r="C218" s="7"/>
+      <c r="U217" s="7"/>
+    </row>
+    <row r="218" spans="4:21">
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
       <c r="F218" s="7"/>
@@ -6536,9 +6124,9 @@
       <c r="R218" s="7"/>
       <c r="S218" s="7"/>
       <c r="T218" s="7"/>
-    </row>
-    <row r="219" spans="3:20">
-      <c r="C219" s="7"/>
+      <c r="U218" s="7"/>
+    </row>
+    <row r="219" spans="4:21">
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
       <c r="F219" s="7"/>
@@ -6556,9 +6144,9 @@
       <c r="R219" s="7"/>
       <c r="S219" s="7"/>
       <c r="T219" s="7"/>
-    </row>
-    <row r="220" spans="3:20">
-      <c r="C220" s="7"/>
+      <c r="U219" s="7"/>
+    </row>
+    <row r="220" spans="4:21">
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
       <c r="F220" s="7"/>
@@ -6576,9 +6164,9 @@
       <c r="R220" s="7"/>
       <c r="S220" s="7"/>
       <c r="T220" s="7"/>
-    </row>
-    <row r="221" spans="3:20">
-      <c r="C221" s="7"/>
+      <c r="U220" s="7"/>
+    </row>
+    <row r="221" spans="4:21">
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
       <c r="F221" s="7"/>
@@ -6596,9 +6184,9 @@
       <c r="R221" s="7"/>
       <c r="S221" s="7"/>
       <c r="T221" s="7"/>
-    </row>
-    <row r="222" spans="3:20">
-      <c r="C222" s="7"/>
+      <c r="U221" s="7"/>
+    </row>
+    <row r="222" spans="4:21">
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
       <c r="F222" s="7"/>
@@ -6616,9 +6204,9 @@
       <c r="R222" s="7"/>
       <c r="S222" s="7"/>
       <c r="T222" s="7"/>
-    </row>
-    <row r="223" spans="3:20">
-      <c r="C223" s="7"/>
+      <c r="U222" s="7"/>
+    </row>
+    <row r="223" spans="4:21">
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
       <c r="F223" s="7"/>
@@ -6636,9 +6224,9 @@
       <c r="R223" s="7"/>
       <c r="S223" s="7"/>
       <c r="T223" s="7"/>
-    </row>
-    <row r="224" spans="3:20">
-      <c r="C224" s="7"/>
+      <c r="U223" s="7"/>
+    </row>
+    <row r="224" spans="4:21">
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
       <c r="F224" s="7"/>
@@ -6656,9 +6244,9 @@
       <c r="R224" s="7"/>
       <c r="S224" s="7"/>
       <c r="T224" s="7"/>
-    </row>
-    <row r="225" spans="3:20">
-      <c r="C225" s="7"/>
+      <c r="U224" s="7"/>
+    </row>
+    <row r="225" spans="4:21">
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
       <c r="F225" s="7"/>
@@ -6676,9 +6264,9 @@
       <c r="R225" s="7"/>
       <c r="S225" s="7"/>
       <c r="T225" s="7"/>
-    </row>
-    <row r="226" spans="3:20">
-      <c r="C226" s="7"/>
+      <c r="U225" s="7"/>
+    </row>
+    <row r="226" spans="4:21">
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
       <c r="F226" s="7"/>
@@ -6696,9 +6284,9 @@
       <c r="R226" s="7"/>
       <c r="S226" s="7"/>
       <c r="T226" s="7"/>
-    </row>
-    <row r="227" spans="3:20">
-      <c r="C227" s="7"/>
+      <c r="U226" s="7"/>
+    </row>
+    <row r="227" spans="4:21">
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
       <c r="F227" s="7"/>
@@ -6716,9 +6304,9 @@
       <c r="R227" s="7"/>
       <c r="S227" s="7"/>
       <c r="T227" s="7"/>
-    </row>
-    <row r="228" spans="3:20">
-      <c r="C228" s="7"/>
+      <c r="U227" s="7"/>
+    </row>
+    <row r="228" spans="4:21">
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
       <c r="F228" s="7"/>
@@ -6736,9 +6324,9 @@
       <c r="R228" s="7"/>
       <c r="S228" s="7"/>
       <c r="T228" s="7"/>
-    </row>
-    <row r="229" spans="3:20">
-      <c r="C229" s="7"/>
+      <c r="U228" s="7"/>
+    </row>
+    <row r="229" spans="4:21">
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
       <c r="F229" s="7"/>
@@ -6756,9 +6344,9 @@
       <c r="R229" s="7"/>
       <c r="S229" s="7"/>
       <c r="T229" s="7"/>
-    </row>
-    <row r="230" spans="3:20">
-      <c r="C230" s="7"/>
+      <c r="U229" s="7"/>
+    </row>
+    <row r="230" spans="4:21">
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
       <c r="F230" s="7"/>
@@ -6776,9 +6364,9 @@
       <c r="R230" s="7"/>
       <c r="S230" s="7"/>
       <c r="T230" s="7"/>
-    </row>
-    <row r="231" spans="3:20">
-      <c r="C231" s="7"/>
+      <c r="U230" s="7"/>
+    </row>
+    <row r="231" spans="4:21">
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
       <c r="F231" s="7"/>
@@ -6796,9 +6384,9 @@
       <c r="R231" s="7"/>
       <c r="S231" s="7"/>
       <c r="T231" s="7"/>
-    </row>
-    <row r="232" spans="3:20">
-      <c r="C232" s="7"/>
+      <c r="U231" s="7"/>
+    </row>
+    <row r="232" spans="4:21">
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
       <c r="F232" s="7"/>
@@ -6816,9 +6404,9 @@
       <c r="R232" s="7"/>
       <c r="S232" s="7"/>
       <c r="T232" s="7"/>
-    </row>
-    <row r="233" spans="3:20">
-      <c r="C233" s="7"/>
+      <c r="U232" s="7"/>
+    </row>
+    <row r="233" spans="4:21">
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
       <c r="F233" s="7"/>
@@ -6836,9 +6424,9 @@
       <c r="R233" s="7"/>
       <c r="S233" s="7"/>
       <c r="T233" s="7"/>
-    </row>
-    <row r="234" spans="3:20">
-      <c r="C234" s="7"/>
+      <c r="U233" s="7"/>
+    </row>
+    <row r="234" spans="4:21">
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
       <c r="F234" s="7"/>
@@ -6856,9 +6444,9 @@
       <c r="R234" s="7"/>
       <c r="S234" s="7"/>
       <c r="T234" s="7"/>
-    </row>
-    <row r="235" spans="3:20">
-      <c r="C235" s="7"/>
+      <c r="U234" s="7"/>
+    </row>
+    <row r="235" spans="4:21">
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
       <c r="F235" s="7"/>
@@ -6876,9 +6464,9 @@
       <c r="R235" s="7"/>
       <c r="S235" s="7"/>
       <c r="T235" s="7"/>
-    </row>
-    <row r="236" spans="3:20">
-      <c r="C236" s="7"/>
+      <c r="U235" s="7"/>
+    </row>
+    <row r="236" spans="4:21">
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
       <c r="F236" s="7"/>
@@ -6896,9 +6484,9 @@
       <c r="R236" s="7"/>
       <c r="S236" s="7"/>
       <c r="T236" s="7"/>
-    </row>
-    <row r="237" spans="3:20">
-      <c r="C237" s="7"/>
+      <c r="U236" s="7"/>
+    </row>
+    <row r="237" spans="4:21">
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
       <c r="F237" s="7"/>
@@ -6916,9 +6504,9 @@
       <c r="R237" s="7"/>
       <c r="S237" s="7"/>
       <c r="T237" s="7"/>
-    </row>
-    <row r="238" spans="3:20">
-      <c r="C238" s="7"/>
+      <c r="U237" s="7"/>
+    </row>
+    <row r="238" spans="4:21">
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
       <c r="F238" s="7"/>
@@ -6936,9 +6524,9 @@
       <c r="R238" s="7"/>
       <c r="S238" s="7"/>
       <c r="T238" s="7"/>
-    </row>
-    <row r="239" spans="3:20">
-      <c r="C239" s="7"/>
+      <c r="U238" s="7"/>
+    </row>
+    <row r="239" spans="4:21">
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
       <c r="F239" s="7"/>
@@ -6956,9 +6544,9 @@
       <c r="R239" s="7"/>
       <c r="S239" s="7"/>
       <c r="T239" s="7"/>
-    </row>
-    <row r="240" spans="3:20">
-      <c r="C240" s="7"/>
+      <c r="U239" s="7"/>
+    </row>
+    <row r="240" spans="4:21">
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
       <c r="F240" s="7"/>
@@ -6976,9 +6564,9 @@
       <c r="R240" s="7"/>
       <c r="S240" s="7"/>
       <c r="T240" s="7"/>
-    </row>
-    <row r="241" spans="3:20">
-      <c r="C241" s="7"/>
+      <c r="U240" s="7"/>
+    </row>
+    <row r="241" spans="4:21">
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
       <c r="F241" s="7"/>
@@ -6996,9 +6584,9 @@
       <c r="R241" s="7"/>
       <c r="S241" s="7"/>
       <c r="T241" s="7"/>
-    </row>
-    <row r="242" spans="3:20">
-      <c r="C242" s="7"/>
+      <c r="U241" s="7"/>
+    </row>
+    <row r="242" spans="4:21">
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
       <c r="F242" s="7"/>
@@ -7016,9 +6604,9 @@
       <c r="R242" s="7"/>
       <c r="S242" s="7"/>
       <c r="T242" s="7"/>
-    </row>
-    <row r="243" spans="3:20">
-      <c r="C243" s="7"/>
+      <c r="U242" s="7"/>
+    </row>
+    <row r="243" spans="4:21">
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
       <c r="F243" s="7"/>
@@ -7036,9 +6624,9 @@
       <c r="R243" s="7"/>
       <c r="S243" s="7"/>
       <c r="T243" s="7"/>
-    </row>
-    <row r="244" spans="3:20">
-      <c r="C244" s="7"/>
+      <c r="U243" s="7"/>
+    </row>
+    <row r="244" spans="4:21">
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
       <c r="F244" s="7"/>
@@ -7056,9 +6644,9 @@
       <c r="R244" s="7"/>
       <c r="S244" s="7"/>
       <c r="T244" s="7"/>
-    </row>
-    <row r="245" spans="3:20">
-      <c r="C245" s="7"/>
+      <c r="U244" s="7"/>
+    </row>
+    <row r="245" spans="4:21">
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
       <c r="F245" s="7"/>
@@ -7076,9 +6664,9 @@
       <c r="R245" s="7"/>
       <c r="S245" s="7"/>
       <c r="T245" s="7"/>
-    </row>
-    <row r="246" spans="3:20">
-      <c r="C246" s="7"/>
+      <c r="U245" s="7"/>
+    </row>
+    <row r="246" spans="4:21">
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
       <c r="F246" s="7"/>
@@ -7096,9 +6684,9 @@
       <c r="R246" s="7"/>
       <c r="S246" s="7"/>
       <c r="T246" s="7"/>
-    </row>
-    <row r="247" spans="3:20">
-      <c r="C247" s="7"/>
+      <c r="U246" s="7"/>
+    </row>
+    <row r="247" spans="4:21">
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
       <c r="F247" s="7"/>
@@ -7116,9 +6704,9 @@
       <c r="R247" s="7"/>
       <c r="S247" s="7"/>
       <c r="T247" s="7"/>
-    </row>
-    <row r="248" spans="3:20">
-      <c r="C248" s="7"/>
+      <c r="U247" s="7"/>
+    </row>
+    <row r="248" spans="4:21">
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
       <c r="F248" s="7"/>
@@ -7136,9 +6724,9 @@
       <c r="R248" s="7"/>
       <c r="S248" s="7"/>
       <c r="T248" s="7"/>
-    </row>
-    <row r="249" spans="3:20">
-      <c r="C249" s="7"/>
+      <c r="U248" s="7"/>
+    </row>
+    <row r="249" spans="4:21">
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
       <c r="F249" s="7"/>
@@ -7156,9 +6744,9 @@
       <c r="R249" s="7"/>
       <c r="S249" s="7"/>
       <c r="T249" s="7"/>
-    </row>
-    <row r="250" spans="3:20">
-      <c r="C250" s="7"/>
+      <c r="U249" s="7"/>
+    </row>
+    <row r="250" spans="4:21">
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
       <c r="F250" s="7"/>
@@ -7176,9 +6764,9 @@
       <c r="R250" s="7"/>
       <c r="S250" s="7"/>
       <c r="T250" s="7"/>
-    </row>
-    <row r="251" spans="3:20">
-      <c r="C251" s="7"/>
+      <c r="U250" s="7"/>
+    </row>
+    <row r="251" spans="4:21">
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
       <c r="F251" s="7"/>
@@ -7196,9 +6784,9 @@
       <c r="R251" s="7"/>
       <c r="S251" s="7"/>
       <c r="T251" s="7"/>
-    </row>
-    <row r="252" spans="3:20">
-      <c r="C252" s="7"/>
+      <c r="U251" s="7"/>
+    </row>
+    <row r="252" spans="4:21">
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
       <c r="F252" s="7"/>
@@ -7216,9 +6804,9 @@
       <c r="R252" s="7"/>
       <c r="S252" s="7"/>
       <c r="T252" s="7"/>
-    </row>
-    <row r="253" spans="3:20">
-      <c r="C253" s="7"/>
+      <c r="U252" s="7"/>
+    </row>
+    <row r="253" spans="4:21">
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
       <c r="F253" s="7"/>
@@ -7236,9 +6824,9 @@
       <c r="R253" s="7"/>
       <c r="S253" s="7"/>
       <c r="T253" s="7"/>
-    </row>
-    <row r="254" spans="3:20">
-      <c r="C254" s="7"/>
+      <c r="U253" s="7"/>
+    </row>
+    <row r="254" spans="4:21">
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
       <c r="F254" s="7"/>
@@ -7256,9 +6844,9 @@
       <c r="R254" s="7"/>
       <c r="S254" s="7"/>
       <c r="T254" s="7"/>
-    </row>
-    <row r="255" spans="3:20">
-      <c r="C255" s="7"/>
+      <c r="U254" s="7"/>
+    </row>
+    <row r="255" spans="4:21">
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
       <c r="F255" s="7"/>
@@ -7276,9 +6864,9 @@
       <c r="R255" s="7"/>
       <c r="S255" s="7"/>
       <c r="T255" s="7"/>
-    </row>
-    <row r="256" spans="3:20">
-      <c r="C256" s="7"/>
+      <c r="U255" s="7"/>
+    </row>
+    <row r="256" spans="4:21">
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
       <c r="F256" s="7"/>
@@ -7296,9 +6884,9 @@
       <c r="R256" s="7"/>
       <c r="S256" s="7"/>
       <c r="T256" s="7"/>
-    </row>
-    <row r="257" spans="3:20">
-      <c r="C257" s="7"/>
+      <c r="U256" s="7"/>
+    </row>
+    <row r="257" spans="4:21">
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
       <c r="F257" s="7"/>
@@ -7316,9 +6904,9 @@
       <c r="R257" s="7"/>
       <c r="S257" s="7"/>
       <c r="T257" s="7"/>
-    </row>
-    <row r="258" spans="3:20">
-      <c r="C258" s="7"/>
+      <c r="U257" s="7"/>
+    </row>
+    <row r="258" spans="4:21">
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
       <c r="F258" s="7"/>
@@ -7336,9 +6924,9 @@
       <c r="R258" s="7"/>
       <c r="S258" s="7"/>
       <c r="T258" s="7"/>
-    </row>
-    <row r="259" spans="3:20">
-      <c r="C259" s="7"/>
+      <c r="U258" s="7"/>
+    </row>
+    <row r="259" spans="4:21">
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
       <c r="F259" s="7"/>
@@ -7356,9 +6944,9 @@
       <c r="R259" s="7"/>
       <c r="S259" s="7"/>
       <c r="T259" s="7"/>
-    </row>
-    <row r="260" spans="3:20">
-      <c r="C260" s="7"/>
+      <c r="U259" s="7"/>
+    </row>
+    <row r="260" spans="4:21">
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
       <c r="F260" s="7"/>
@@ -7376,9 +6964,9 @@
       <c r="R260" s="7"/>
       <c r="S260" s="7"/>
       <c r="T260" s="7"/>
-    </row>
-    <row r="261" spans="3:20">
-      <c r="C261" s="7"/>
+      <c r="U260" s="7"/>
+    </row>
+    <row r="261" spans="4:21">
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
       <c r="F261" s="7"/>
@@ -7396,9 +6984,9 @@
       <c r="R261" s="7"/>
       <c r="S261" s="7"/>
       <c r="T261" s="7"/>
-    </row>
-    <row r="262" spans="3:20">
-      <c r="C262" s="7"/>
+      <c r="U261" s="7"/>
+    </row>
+    <row r="262" spans="4:21">
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
       <c r="F262" s="7"/>
@@ -7416,9 +7004,9 @@
       <c r="R262" s="7"/>
       <c r="S262" s="7"/>
       <c r="T262" s="7"/>
-    </row>
-    <row r="263" spans="3:20">
-      <c r="C263" s="7"/>
+      <c r="U262" s="7"/>
+    </row>
+    <row r="263" spans="4:21">
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
       <c r="F263" s="7"/>
@@ -7436,9 +7024,9 @@
       <c r="R263" s="7"/>
       <c r="S263" s="7"/>
       <c r="T263" s="7"/>
-    </row>
-    <row r="264" spans="3:20">
-      <c r="C264" s="7"/>
+      <c r="U263" s="7"/>
+    </row>
+    <row r="264" spans="4:21">
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
       <c r="F264" s="7"/>
@@ -7456,9 +7044,9 @@
       <c r="R264" s="7"/>
       <c r="S264" s="7"/>
       <c r="T264" s="7"/>
-    </row>
-    <row r="265" spans="3:20">
-      <c r="C265" s="7"/>
+      <c r="U264" s="7"/>
+    </row>
+    <row r="265" spans="4:21">
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
       <c r="F265" s="7"/>
@@ -7476,9 +7064,9 @@
       <c r="R265" s="7"/>
       <c r="S265" s="7"/>
       <c r="T265" s="7"/>
-    </row>
-    <row r="266" spans="3:20">
-      <c r="C266" s="7"/>
+      <c r="U265" s="7"/>
+    </row>
+    <row r="266" spans="4:21">
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
       <c r="F266" s="7"/>
@@ -7496,9 +7084,9 @@
       <c r="R266" s="7"/>
       <c r="S266" s="7"/>
       <c r="T266" s="7"/>
-    </row>
-    <row r="267" spans="3:20">
-      <c r="C267" s="7"/>
+      <c r="U266" s="7"/>
+    </row>
+    <row r="267" spans="4:21">
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
       <c r="F267" s="7"/>
@@ -7516,9 +7104,9 @@
       <c r="R267" s="7"/>
       <c r="S267" s="7"/>
       <c r="T267" s="7"/>
-    </row>
-    <row r="268" spans="3:20">
-      <c r="C268" s="7"/>
+      <c r="U267" s="7"/>
+    </row>
+    <row r="268" spans="4:21">
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
       <c r="F268" s="7"/>
@@ -7536,9 +7124,9 @@
       <c r="R268" s="7"/>
       <c r="S268" s="7"/>
       <c r="T268" s="7"/>
-    </row>
-    <row r="269" spans="3:20">
-      <c r="C269" s="7"/>
+      <c r="U268" s="7"/>
+    </row>
+    <row r="269" spans="4:21">
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
       <c r="F269" s="7"/>
@@ -7556,9 +7144,9 @@
       <c r="R269" s="7"/>
       <c r="S269" s="7"/>
       <c r="T269" s="7"/>
-    </row>
-    <row r="270" spans="3:20">
-      <c r="C270" s="7"/>
+      <c r="U269" s="7"/>
+    </row>
+    <row r="270" spans="4:21">
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
       <c r="F270" s="7"/>
@@ -7576,9 +7164,9 @@
       <c r="R270" s="7"/>
       <c r="S270" s="7"/>
       <c r="T270" s="7"/>
-    </row>
-    <row r="271" spans="3:20">
-      <c r="C271" s="7"/>
+      <c r="U270" s="7"/>
+    </row>
+    <row r="271" spans="4:21">
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
       <c r="F271" s="7"/>
@@ -7596,9 +7184,9 @@
       <c r="R271" s="7"/>
       <c r="S271" s="7"/>
       <c r="T271" s="7"/>
-    </row>
-    <row r="272" spans="3:20">
-      <c r="C272" s="7"/>
+      <c r="U271" s="7"/>
+    </row>
+    <row r="272" spans="4:21">
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
       <c r="F272" s="7"/>
@@ -7616,9 +7204,9 @@
       <c r="R272" s="7"/>
       <c r="S272" s="7"/>
       <c r="T272" s="7"/>
-    </row>
-    <row r="273" spans="3:20">
-      <c r="C273" s="7"/>
+      <c r="U272" s="7"/>
+    </row>
+    <row r="273" spans="4:21">
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
       <c r="F273" s="7"/>
@@ -7636,9 +7224,9 @@
       <c r="R273" s="7"/>
       <c r="S273" s="7"/>
       <c r="T273" s="7"/>
-    </row>
-    <row r="274" spans="3:20">
-      <c r="C274" s="7"/>
+      <c r="U273" s="7"/>
+    </row>
+    <row r="274" spans="4:21">
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
       <c r="F274" s="7"/>
@@ -7656,9 +7244,9 @@
       <c r="R274" s="7"/>
       <c r="S274" s="7"/>
       <c r="T274" s="7"/>
-    </row>
-    <row r="275" spans="3:20">
-      <c r="C275" s="7"/>
+      <c r="U274" s="7"/>
+    </row>
+    <row r="275" spans="4:21">
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
       <c r="F275" s="7"/>
@@ -7676,9 +7264,9 @@
       <c r="R275" s="7"/>
       <c r="S275" s="7"/>
       <c r="T275" s="7"/>
-    </row>
-    <row r="276" spans="3:20">
-      <c r="C276" s="7"/>
+      <c r="U275" s="7"/>
+    </row>
+    <row r="276" spans="4:21">
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
       <c r="F276" s="7"/>
@@ -7696,9 +7284,9 @@
       <c r="R276" s="7"/>
       <c r="S276" s="7"/>
       <c r="T276" s="7"/>
-    </row>
-    <row r="277" spans="3:20">
-      <c r="C277" s="7"/>
+      <c r="U276" s="7"/>
+    </row>
+    <row r="277" spans="4:21">
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
       <c r="F277" s="7"/>
@@ -7716,9 +7304,9 @@
       <c r="R277" s="7"/>
       <c r="S277" s="7"/>
       <c r="T277" s="7"/>
-    </row>
-    <row r="278" spans="3:20">
-      <c r="C278" s="7"/>
+      <c r="U277" s="7"/>
+    </row>
+    <row r="278" spans="4:21">
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
       <c r="F278" s="7"/>
@@ -7736,9 +7324,9 @@
       <c r="R278" s="7"/>
       <c r="S278" s="7"/>
       <c r="T278" s="7"/>
-    </row>
-    <row r="279" spans="3:20">
-      <c r="C279" s="7"/>
+      <c r="U278" s="7"/>
+    </row>
+    <row r="279" spans="4:21">
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
       <c r="F279" s="7"/>
@@ -7756,9 +7344,9 @@
       <c r="R279" s="7"/>
       <c r="S279" s="7"/>
       <c r="T279" s="7"/>
-    </row>
-    <row r="280" spans="3:20">
-      <c r="C280" s="7"/>
+      <c r="U279" s="7"/>
+    </row>
+    <row r="280" spans="4:21">
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
       <c r="F280" s="7"/>
@@ -7776,9 +7364,9 @@
       <c r="R280" s="7"/>
       <c r="S280" s="7"/>
       <c r="T280" s="7"/>
-    </row>
-    <row r="281" spans="3:20">
-      <c r="C281" s="7"/>
+      <c r="U280" s="7"/>
+    </row>
+    <row r="281" spans="4:21">
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
       <c r="F281" s="7"/>
@@ -7796,9 +7384,9 @@
       <c r="R281" s="7"/>
       <c r="S281" s="7"/>
       <c r="T281" s="7"/>
-    </row>
-    <row r="282" spans="3:20">
-      <c r="C282" s="7"/>
+      <c r="U281" s="7"/>
+    </row>
+    <row r="282" spans="4:21">
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
       <c r="F282" s="7"/>
@@ -7816,9 +7404,9 @@
       <c r="R282" s="7"/>
       <c r="S282" s="7"/>
       <c r="T282" s="7"/>
-    </row>
-    <row r="283" spans="3:20">
-      <c r="C283" s="7"/>
+      <c r="U282" s="7"/>
+    </row>
+    <row r="283" spans="4:21">
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
       <c r="F283" s="7"/>
@@ -7836,61 +7424,65 @@
       <c r="R283" s="7"/>
       <c r="S283" s="7"/>
       <c r="T283" s="7"/>
+      <c r="U283" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:V104">
+  <autoFilter ref="D1:W104">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
+  <conditionalFormatting sqref="L4">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
     <cfRule type="duplicateValues" dxfId="0" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
+  <conditionalFormatting sqref="L10">
     <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
+  <conditionalFormatting sqref="L11">
     <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
+  <conditionalFormatting sqref="L12">
     <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
+  <conditionalFormatting sqref="L13">
     <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
+  <conditionalFormatting sqref="L14">
     <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
+  <conditionalFormatting sqref="L15">
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
+  <conditionalFormatting sqref="L16">
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
+  <conditionalFormatting sqref="L17">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
+  <conditionalFormatting sqref="L18">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
+  <conditionalFormatting sqref="L19">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K3;K20:K1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+  <conditionalFormatting sqref="L1:L2;L20:L1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
